--- a/temp-time.xlsx
+++ b/temp-time.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="248" documentId="11_AD4D066CA252ABEACE02EC83DB12C37C72EEDF07" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{0B4CDAC6-A43C-48EA-A1C0-A46777C5324D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E402F028-D89E-4293-9548-69D3EC4D39E6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21336" yWindow="324" windowWidth="8736" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -283,86 +283,128 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$29</c:f>
+              <c:f>Sheet1!$A$4:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="22">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="23">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="27">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="28">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="29">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="31">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="32">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="36">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="37">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="39">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -370,86 +412,128 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$29</c:f>
+              <c:f>Sheet1!$C$4:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>21.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>34.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>30.8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>34.6</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>43.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>48.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>47.9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>50.1</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
+                  <c:v>50.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>57.9</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>56.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
+                  <c:v>59.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>68.900000000000006</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="22">
                   <c:v>63.6</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="23">
                   <c:v>66.099999999999994</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="24">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>71.8</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="27">
                   <c:v>75.900000000000006</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="28">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="29">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>85.6</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="31">
                   <c:v>79.5</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="32">
                   <c:v>83.1</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="33">
+                  <c:v>83.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>86.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="36">
                   <c:v>88.6</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="37">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>94.2</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="39">
                   <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
@@ -497,86 +581,128 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$29</c:f>
+              <c:f>Sheet1!$A$4:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="22">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="23">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="27">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="28">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="29">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="31">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="32">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="36">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="37">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="39">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -584,10 +710,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$29</c:f>
+              <c:f>Sheet1!$D$4:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="40"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -636,86 +762,128 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$29</c:f>
+              <c:f>Sheet1!$A$4:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="22">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="23">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="27">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="28">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="29">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="31">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="32">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="36">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="37">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="39">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -723,86 +891,86 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$29</c:f>
+              <c:f>Sheet1!$E$4:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>25.121027000000002</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>33.228484999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>32.989646999999998</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>33.088810000000002</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>39.308365000000002</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>37.909644999999998</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>42.492122999999999</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>45.246783999999998</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>47.573414</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>50.413024999999998</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>58.10407</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>55.641120000000001</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>55.990600000000001</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="21">
                   <c:v>69.017089999999996</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="22">
                   <c:v>62.869446000000003</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="23">
                   <c:v>67.326750000000004</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="26">
                   <c:v>70.940055999999998</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="27">
                   <c:v>75.011369999999999</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="28">
                   <c:v>74.750609999999995</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="30">
                   <c:v>86.020070000000004</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="31">
                   <c:v>78.801509999999993</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="32">
                   <c:v>83.103830000000002</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="35">
                   <c:v>89.995316000000003</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="36">
                   <c:v>85.831400000000002</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="38">
                   <c:v>95.429869999999994</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="39">
                   <c:v>85.228849999999994</c:v>
                 </c:pt>
               </c:numCache>
@@ -818,9 +986,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>テスト実測</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -845,20 +1010,32 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$37:$A$40</c:f>
+              <c:f>Sheet1!$A$51:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -866,21 +1043,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$37:$C$40</c:f>
+              <c:f>Sheet1!$C$51:$C$60</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>49.8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>82.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,9 +1090,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:v>予測値</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -922,20 +1114,32 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$37:$A$40</c:f>
+              <c:f>Sheet1!$A$51:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -943,20 +1147,20 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$37:$E$40</c:f>
+              <c:f>Sheet1!$E$51:$E$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>27.718845000000002</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>56.479900000000001</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>67.595060000000004</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>85.894490000000005</c:v>
                 </c:pt>
               </c:numCache>
@@ -1719,13 +1923,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2017,10 +2221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2084,563 +2288,820 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B5" s="3">
-        <v>8.4</v>
+        <v>13.2</v>
       </c>
       <c r="C5" s="3">
-        <v>34.5</v>
-      </c>
-      <c r="E5" s="4">
-        <v>33.228484999999999</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" ref="F5:F39" si="0">(E5-C5)/C5*100</f>
-        <v>-3.6855507246376837</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B6" s="3">
-        <v>10.1</v>
+        <v>15.7</v>
       </c>
       <c r="C6" s="3">
-        <v>30.8</v>
-      </c>
-      <c r="E6" s="4">
-        <v>32.989646999999998</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>7.1092435064934971</v>
-      </c>
+        <v>26.5</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>33.228484999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" ref="F7:F43" si="0">(E7-C7)/C7*100</f>
+        <v>-3.6855507246376837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>30.8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>32.989646999999998</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>7.1092435064934971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
         <v>15.3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C9" s="3">
         <v>34.6</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E9" s="4">
         <v>33.088810000000002</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>-4.3676011560693615</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3">
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>14.2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>34</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3">
         <v>1.5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B12" s="3">
         <v>13.3</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C12" s="3">
         <v>42</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="4">
+      <c r="D12" s="1"/>
+      <c r="E12" s="4">
         <v>39.308365000000002</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F12" s="1">
         <f t="shared" si="0"/>
         <v>-6.4086547619047574</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3">
+    <row r="13" spans="1:7">
+      <c r="A13" s="3">
         <v>1.5</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B13" s="3">
         <v>9.1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C13" s="3">
         <v>38</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4">
+      <c r="D13" s="1"/>
+      <c r="E13" s="4">
         <v>37.909644999999998</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>-0.23777631578948002</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3">
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
         <v>1.5</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B14" s="3">
         <v>13.3</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C14" s="3">
         <v>43.1</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E14" s="4">
         <v>42.492122999999999</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F14" s="1">
         <f t="shared" si="0"/>
         <v>-1.4103874709976845</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3">
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B15" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>42.3</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B16" s="3">
         <v>10.3</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C16" s="3">
         <v>48.2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E16" s="4">
         <v>45.246783999999998</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F16" s="1">
         <f t="shared" si="0"/>
         <v>-6.1270041493776031</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3">
+    <row r="17" spans="1:6">
+      <c r="A17" s="3">
         <v>2</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B17" s="3">
         <v>9.6999999999999993</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C17" s="3">
         <v>47.9</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E17" s="4">
         <v>47.573414</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F17" s="1">
         <f t="shared" si="0"/>
         <v>-0.68180793319415234</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3">
+    <row r="18" spans="1:6">
+      <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B18" s="3">
         <v>14</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C18" s="3">
         <v>50.1</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="4">
+      <c r="D18" s="1"/>
+      <c r="E18" s="4">
         <v>50.413024999999998</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F18" s="1">
         <f t="shared" si="0"/>
         <v>0.62480039920158903</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3">
+    <row r="19" spans="1:6">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3">
+        <v>50.3</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>51.3</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3">
         <v>2.5</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B21" s="3">
         <v>14</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C21" s="3">
         <v>57.9</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E21" s="4">
         <v>58.10407</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F21" s="1">
         <f t="shared" si="0"/>
         <v>0.3524525043177919</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3">
+    <row r="22" spans="1:6">
+      <c r="A22" s="3">
         <v>2.5</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B22" s="3">
         <v>9.6</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C22" s="3">
         <v>55</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E22" s="4">
         <v>55.641120000000001</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F22" s="1">
         <f t="shared" si="0"/>
         <v>1.1656727272727287</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3">
+    <row r="23" spans="1:6">
+      <c r="A23" s="3">
         <v>2.5</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B23" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C23" s="3">
         <v>56.7</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E23" s="4">
         <v>55.990600000000001</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F23" s="1">
         <f t="shared" si="0"/>
         <v>-1.2511463844797217</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3">
+    <row r="24" spans="1:6">
+      <c r="A24" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="B24" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="C24" s="3">
+        <v>59.2</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3">
         <v>3</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B25" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C25" s="3">
         <v>68.900000000000006</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E25" s="4">
         <v>69.017089999999996</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F25" s="1">
         <f t="shared" si="0"/>
         <v>0.16994194484759123</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3">
+    <row r="26" spans="1:6">
+      <c r="A26" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B26" s="3">
         <v>9.1</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C26" s="3">
         <v>63.6</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E26" s="4">
         <v>62.869446000000003</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F26" s="1">
         <f t="shared" si="0"/>
         <v>-1.1486698113207514</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3">
+    <row r="27" spans="1:6">
+      <c r="A27" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B27" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C27" s="3">
         <v>66.099999999999994</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E27" s="4">
         <v>67.326750000000004</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F27" s="1">
         <f t="shared" si="0"/>
         <v>1.8559001512859454</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3">
+    <row r="28" spans="1:6">
+      <c r="A28" s="3">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="C29" s="3">
+        <v>69</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3">
         <v>3.5</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B30" s="3">
         <v>10</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C30" s="3">
         <v>71.8</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E30" s="4">
         <v>70.940055999999998</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F30" s="1">
         <f t="shared" si="0"/>
         <v>-1.1976935933147614</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3">
+    <row r="31" spans="1:6">
+      <c r="A31" s="3">
         <v>3.5</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B31" s="3">
         <v>13</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C31" s="3">
         <v>75.900000000000006</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E31" s="4">
         <v>75.011369999999999</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F31" s="1">
         <f t="shared" si="0"/>
         <v>-1.1707905138340002</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3">
+    <row r="32" spans="1:6">
+      <c r="A32" s="3">
         <v>3.5</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B32" s="3">
         <v>13</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C32" s="3">
         <v>75</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E32" s="4">
         <v>74.750609999999995</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F32" s="1">
         <f t="shared" si="0"/>
         <v>-0.33252000000000709</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3">
+    <row r="33" spans="1:6">
+      <c r="A33" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="B33" s="3">
+        <v>15</v>
+      </c>
+      <c r="C33" s="3">
+        <v>77.5</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3">
         <v>4</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B34" s="3">
         <v>13.3</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C34" s="3">
         <v>85.6</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E34" s="4">
         <v>86.020070000000004</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F34" s="1">
         <f t="shared" si="0"/>
         <v>0.49073598130842261</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3">
+    <row r="35" spans="1:6">
+      <c r="A35" s="3">
         <v>4</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B35" s="3">
         <v>9.6999999999999993</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C35" s="3">
         <v>79.5</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E35" s="4">
         <v>78.801509999999993</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F35" s="1">
         <f t="shared" si="0"/>
         <v>-0.87860377358491404</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3">
+    <row r="36" spans="1:6">
+      <c r="A36" s="3">
         <v>4</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B36" s="3">
         <v>13.5</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C36" s="3">
         <v>83.1</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E36" s="4">
         <v>83.103830000000002</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F36" s="1">
         <f t="shared" si="0"/>
         <v>4.6089049338240333E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3">
+    <row r="37" spans="1:6">
+      <c r="A37" s="3">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3">
+        <v>14</v>
+      </c>
+      <c r="C37" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="C38" s="3">
+        <v>86.1</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3">
         <v>4.5</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B39" s="3">
         <v>12.9</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C39" s="3">
         <v>91</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E39" s="4">
         <v>89.995316000000003</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F39" s="1">
         <f t="shared" si="0"/>
         <v>-1.1040483516483488</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3">
+    <row r="40" spans="1:6">
+      <c r="A40" s="3">
         <v>4.5</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B40" s="3">
         <v>9.6999999999999993</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C40" s="3">
         <v>88.6</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E40" s="4">
         <v>85.831400000000002</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F40" s="1">
         <f t="shared" si="0"/>
         <v>-3.1248306997742574</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3">
+    <row r="41" spans="1:6">
+      <c r="A41" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B41" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="C41" s="3">
+        <v>92</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3">
         <v>5</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B42" s="3">
         <v>13</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C42" s="3">
         <v>94.2</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E42" s="4">
         <v>95.429869999999994</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F42" s="1">
         <f t="shared" si="0"/>
         <v>1.3055944798301391</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3">
+    <row r="43" spans="1:6">
+      <c r="A43" s="3">
         <v>5</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B43" s="3">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C43" s="3">
         <v>94</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E43" s="4">
         <v>85.228849999999994</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F43" s="1">
         <f t="shared" si="0"/>
         <v>-9.3310106382978795</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="E30">
+    <row r="44" spans="1:6">
+      <c r="E44">
         <v>4096</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="E31">
+    <row r="45" spans="1:6">
+      <c r="E45">
         <v>512</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="E32" s="5">
+    <row r="46" spans="1:6">
+      <c r="E46" s="5">
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="E33">
+    <row r="47" spans="1:6">
+      <c r="E47">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="D34" t="s">
+    <row r="48" spans="1:6">
+      <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E34">
+      <c r="E48">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="D35" t="s">
+    <row r="49" spans="1:6">
+      <c r="D49" t="s">
         <v>7</v>
       </c>
-      <c r="E35">
+      <c r="E49">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="3">
+    <row r="51" spans="1:6">
+      <c r="A51" s="3">
         <v>1</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B51" s="3">
         <v>13.8</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C51" s="3">
         <v>33</v>
       </c>
-      <c r="E37">
+      <c r="E51">
         <v>27.718845000000002</v>
       </c>
-      <c r="F37" s="1">
-        <f>(E37-C37)/C37*100</f>
+      <c r="F51" s="1">
+        <f>(E51-C51)/C51*100</f>
         <v>-16.003499999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="3">
+    <row r="52" spans="1:6">
+      <c r="A52" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B52" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="C52" s="3">
+        <v>42.2</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="3">
         <v>2</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B53" s="3">
         <v>13</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C53" s="3">
         <v>49.8</v>
       </c>
-      <c r="E38">
+      <c r="E53">
         <v>56.479900000000001</v>
       </c>
-      <c r="F38" s="1">
-        <f>(E38-C38)/C38*100</f>
+      <c r="F53" s="1">
+        <f>(E53-C53)/C53*100</f>
         <v>13.413453815261054</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="3">
+    <row r="54" spans="1:6">
+      <c r="A54" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="B54" s="3">
+        <v>14</v>
+      </c>
+      <c r="C54" s="3">
+        <v>60.5</v>
+      </c>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="3">
         <v>3</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B55" s="3">
         <v>13.1</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C55" s="3">
         <v>67</v>
       </c>
-      <c r="E39">
+      <c r="E55">
         <v>67.595060000000004</v>
       </c>
-      <c r="F39" s="1">
-        <f>(E39-C39)/C39*100</f>
+      <c r="F55" s="1">
+        <f>(E55-C55)/C55*100</f>
         <v>0.88814925373134879</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="3">
+    <row r="56" spans="1:6">
+      <c r="A56" s="3">
+        <v>3</v>
+      </c>
+      <c r="B56" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="C56" s="3">
+        <v>70.5</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="B57" s="3">
+        <v>14</v>
+      </c>
+      <c r="C57" s="3">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="3">
         <v>4</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B58" s="3">
         <v>13.8</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C58" s="3">
         <v>82.1</v>
       </c>
-      <c r="E40">
+      <c r="E58">
         <v>85.894490000000005</v>
       </c>
-      <c r="F40" s="1">
-        <f>(E40-C40)/C40*100</f>
+      <c r="F58" s="1">
+        <f>(E58-C58)/C58*100</f>
         <v>4.6217904993909995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="3">
+        <v>4</v>
+      </c>
+      <c r="B59" s="3">
+        <v>14.7</v>
+      </c>
+      <c r="C59" s="3">
+        <v>85.8</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B60" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="C60" s="3">
+        <v>91.7</v>
       </c>
     </row>
   </sheetData>

--- a/temp-time.xlsx
+++ b/temp-time.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E402F028-D89E-4293-9548-69D3EC4D39E6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9589AD0F-770E-47C8-8386-51037AECDB34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21336" yWindow="324" windowWidth="8736" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7432279869125945E-2"/>
+          <c:y val="2.7542257217847765E-2"/>
+          <c:w val="0.89934850609427242"/>
+          <c:h val="0.93920307961504812"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -547,184 +557,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$4:$A$43</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$4:$D$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-47A5-4400-925E-24B73DBD4734}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
@@ -896,82 +728,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>25.121027000000002</c:v>
+                  <c:v>28.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.228484999999999</c:v>
+                  <c:v>33.49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.989646999999998</c:v>
+                  <c:v>35.51</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.088810000000002</c:v>
+                  <c:v>40.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.54</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.308365000000002</c:v>
+                  <c:v>37.43</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.909644999999998</c:v>
+                  <c:v>50.54</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.492122999999999</c:v>
+                  <c:v>51.81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45.246783999999998</c:v>
+                  <c:v>47.14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47.573414</c:v>
+                  <c:v>54.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.413024999999998</c:v>
+                  <c:v>50.21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.87</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44.08</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58.10407</c:v>
+                  <c:v>49.96</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>55.641120000000001</c:v>
+                  <c:v>42.08</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>55.990600000000001</c:v>
+                  <c:v>41.58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>58.26</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>69.017089999999996</c:v>
+                  <c:v>61.4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>62.869446000000003</c:v>
+                  <c:v>63.96</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>67.326750000000004</c:v>
+                  <c:v>55.14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62.59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71.739999999999995</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>70.940055999999998</c:v>
+                  <c:v>65.61</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>75.011369999999999</c:v>
+                  <c:v>69.73</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>74.750609999999995</c:v>
+                  <c:v>58.46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>65.709999999999994</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>86.020070000000004</c:v>
+                  <c:v>79.67</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>78.801509999999993</c:v>
+                  <c:v>84.09</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>83.103830000000002</c:v>
+                  <c:v>89.04</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>77.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>94.23</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>89.995316000000003</c:v>
+                  <c:v>109.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>85.831400000000002</c:v>
+                  <c:v>118.71</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>73.209999999999994</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>95.429869999999994</c:v>
+                  <c:v>73.78</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>85.228849999999994</c:v>
+                  <c:v>63.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -980,196 +854,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-47A5-4400-925E-24B73DBD4734}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$51:$A$58</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$51:$C$60</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>49.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>75.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>82.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>85.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>91.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-47A5-4400-925E-24B73DBD4734}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$51:$A$58</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$51:$E$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>27.718845000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56.479900000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67.595060000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>85.894490000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-47A5-4400-925E-24B73DBD4734}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1183,6 +867,456 @@
         </c:dLbls>
         <c:axId val="592560008"/>
         <c:axId val="592560664"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$4:$A$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="0">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>4.5</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>4.5</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>4.5</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$4:$D$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="40"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-47A5-4400-925E-24B73DBD4734}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$51:$A$60</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$51:$C$60</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42.2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>49.8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>60.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>70.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>75.900000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>82.1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>85.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>91.7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-47A5-4400-925E-24B73DBD4734}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$51:$A$60</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$51:$E$60</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>33.57</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>52.27</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>56.38</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>53.48</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>56.21</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>48.47</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>49.01</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>90.82</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>69.459999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>74.760000000000005</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-47A5-4400-925E-24B73DBD4734}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="592560008"/>
@@ -1921,16 +2055,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2221,10 +2355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2278,11 +2412,11 @@
         <v>21.4</v>
       </c>
       <c r="E4" s="4">
-        <v>25.121027000000002</v>
+        <v>28.37</v>
       </c>
       <c r="F4" s="1">
         <f>(E4-C4)/C4*100</f>
-        <v>17.387976635514033</v>
+        <v>32.570093457943941</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -2296,8 +2430,13 @@
       <c r="C5" s="3">
         <v>24</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="4">
+        <v>28.19</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F43" si="0">(E5-C5)/C5*100</f>
+        <v>17.458333333333339</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
@@ -2310,8 +2449,13 @@
       <c r="C6" s="3">
         <v>26.5</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="4">
+        <v>24.72</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.7169811320754764</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
@@ -2325,11 +2469,11 @@
         <v>34.5</v>
       </c>
       <c r="E7" s="4">
-        <v>33.228484999999999</v>
+        <v>33.49</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F43" si="0">(E7-C7)/C7*100</f>
-        <v>-3.6855507246376837</v>
+        <f t="shared" si="0"/>
+        <v>-2.9275362318840523</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2343,11 +2487,11 @@
         <v>30.8</v>
       </c>
       <c r="E8" s="4">
-        <v>32.989646999999998</v>
+        <v>35.51</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>7.1092435064934971</v>
+        <v>15.292207792207781</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2361,11 +2505,11 @@
         <v>34.6</v>
       </c>
       <c r="E9" s="4">
-        <v>33.088810000000002</v>
+        <v>40.58</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>-4.3676011560693615</v>
+        <v>17.283236994219646</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2378,8 +2522,13 @@
       <c r="C10" s="3">
         <v>33</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="4">
+        <v>38.81</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>17.606060606060613</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3">
@@ -2391,8 +2540,13 @@
       <c r="C11" s="3">
         <v>34</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="4">
+        <v>38.54</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>13.352941176470587</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3">
@@ -2406,11 +2560,11 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="4">
-        <v>39.308365000000002</v>
+        <v>37.43</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>-6.4086547619047574</v>
+        <v>-10.880952380952381</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2425,11 +2579,11 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="4">
-        <v>37.909644999999998</v>
+        <v>50.54</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>-0.23777631578948002</v>
+        <v>32.999999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2443,11 +2597,11 @@
         <v>43.1</v>
       </c>
       <c r="E14" s="4">
-        <v>42.492122999999999</v>
+        <v>51.81</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4103874709976845</v>
+        <v>20.208816705336428</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2460,8 +2614,13 @@
       <c r="C15" s="3">
         <v>42.3</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="4">
+        <v>53.08</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>25.484633569739955</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3">
@@ -2474,11 +2633,11 @@
         <v>48.2</v>
       </c>
       <c r="E16" s="4">
-        <v>45.246783999999998</v>
+        <v>47.14</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>-6.1270041493776031</v>
+        <v>-2.1991701244813324</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2492,11 +2651,11 @@
         <v>47.9</v>
       </c>
       <c r="E17" s="4">
-        <v>47.573414</v>
+        <v>54.8</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>-0.68180793319415234</v>
+        <v>14.40501043841336</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2511,11 +2670,11 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="4">
-        <v>50.413024999999998</v>
+        <v>50.21</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.62480039920158903</v>
+        <v>0.21956087824351184</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2529,8 +2688,13 @@
         <v>50.3</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="4">
+        <v>52.87</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1093439363817108</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3">
@@ -2543,8 +2707,13 @@
         <v>51.3</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="4">
+        <v>44.08</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>-14.074074074074073</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3">
@@ -2557,11 +2726,11 @@
         <v>57.9</v>
       </c>
       <c r="E21" s="4">
-        <v>58.10407</v>
+        <v>49.96</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.3524525043177919</v>
+        <v>-13.713298791018994</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2575,11 +2744,11 @@
         <v>55</v>
       </c>
       <c r="E22" s="4">
-        <v>55.641120000000001</v>
+        <v>42.08</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>1.1656727272727287</v>
+        <v>-23.490909090909092</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2593,11 +2762,11 @@
         <v>56.7</v>
       </c>
       <c r="E23" s="4">
-        <v>55.990600000000001</v>
+        <v>41.58</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2511463844797217</v>
+        <v>-26.666666666666671</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2610,8 +2779,13 @@
       <c r="C24" s="3">
         <v>59.2</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="4">
+        <v>58.26</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.5878378378378459</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3">
@@ -2624,11 +2798,11 @@
         <v>68.900000000000006</v>
       </c>
       <c r="E25" s="4">
-        <v>69.017089999999996</v>
+        <v>61.4</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.16994194484759123</v>
+        <v>-10.885341074020328</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2642,11 +2816,11 @@
         <v>63.6</v>
       </c>
       <c r="E26" s="4">
-        <v>62.869446000000003</v>
+        <v>63.96</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1486698113207514</v>
+        <v>0.5660377358490557</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2660,11 +2834,11 @@
         <v>66.099999999999994</v>
       </c>
       <c r="E27" s="4">
-        <v>67.326750000000004</v>
+        <v>55.14</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>1.8559001512859454</v>
+        <v>-16.580937972768524</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2677,8 +2851,13 @@
       <c r="C28" s="3">
         <v>67.099999999999994</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="1"/>
+      <c r="E28" s="4">
+        <v>62.59</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.7213114754098235</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3">
@@ -2690,8 +2869,13 @@
       <c r="C29" s="3">
         <v>69</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="1"/>
+      <c r="E29" s="4">
+        <v>71.739999999999995</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9710144927536155</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3">
@@ -2704,11 +2888,11 @@
         <v>71.8</v>
       </c>
       <c r="E30" s="4">
-        <v>70.940055999999998</v>
+        <v>65.61</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1976935933147614</v>
+        <v>-8.6211699164345372</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2722,11 +2906,11 @@
         <v>75.900000000000006</v>
       </c>
       <c r="E31" s="4">
-        <v>75.011369999999999</v>
+        <v>69.73</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1707905138340002</v>
+        <v>-8.1291172595520429</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2740,11 +2924,11 @@
         <v>75</v>
       </c>
       <c r="E32" s="4">
-        <v>74.750609999999995</v>
+        <v>58.46</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>-0.33252000000000709</v>
+        <v>-22.053333333333335</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2757,8 +2941,13 @@
       <c r="C33" s="3">
         <v>77.5</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="1"/>
+      <c r="E33" s="4">
+        <v>65.709999999999994</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>-15.212903225806459</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3">
@@ -2771,11 +2960,11 @@
         <v>85.6</v>
       </c>
       <c r="E34" s="4">
-        <v>86.020070000000004</v>
+        <v>79.67</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.49073598130842261</v>
+        <f>(E34-C34)/C34*100</f>
+        <v>-6.9275700934579358</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2789,11 +2978,11 @@
         <v>79.5</v>
       </c>
       <c r="E35" s="4">
-        <v>78.801509999999993</v>
+        <v>84.09</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>-0.87860377358491404</v>
+        <v>5.7735849056603818</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2807,11 +2996,11 @@
         <v>83.1</v>
       </c>
       <c r="E36" s="4">
-        <v>83.103830000000002</v>
+        <v>89.04</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>4.6089049338240333E-3</v>
+        <v>7.1480144404332284</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2824,8 +3013,13 @@
       <c r="C37" s="3">
         <v>83.3</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="1"/>
+      <c r="E37" s="4">
+        <v>77.430000000000007</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.0468187274909848</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3">
@@ -2837,8 +3031,13 @@
       <c r="C38" s="3">
         <v>86.1</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="1"/>
+      <c r="E38" s="4">
+        <v>94.23</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4425087108014054</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3">
@@ -2851,11 +3050,11 @@
         <v>91</v>
       </c>
       <c r="E39" s="4">
-        <v>89.995316000000003</v>
+        <v>109.5</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1040483516483488</v>
+        <v>20.329670329670328</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2869,11 +3068,11 @@
         <v>88.6</v>
       </c>
       <c r="E40" s="4">
-        <v>85.831400000000002</v>
+        <v>118.71</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>-3.1248306997742574</v>
+        <v>33.984198645598198</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2886,8 +3085,13 @@
       <c r="C41" s="3">
         <v>92</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="1"/>
+      <c r="E41" s="4">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>-20.423913043478269</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3">
@@ -2900,11 +3104,11 @@
         <v>94.2</v>
       </c>
       <c r="E42" s="4">
-        <v>95.429869999999994</v>
+        <v>73.78</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>1.3055944798301391</v>
+        <v>-21.677282377919322</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2918,17 +3122,21 @@
         <v>94</v>
       </c>
       <c r="E43" s="4">
-        <v>85.228849999999994</v>
+        <v>63.06</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>-9.3310106382978795</v>
+        <v>-32.914893617021271</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="E44">
         <v>4096</v>
       </c>
+      <c r="F44" s="1">
+        <f>AVERAGE(F4:F43)</f>
+        <v>0.34383124256310837</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="E45">
@@ -2972,11 +3180,11 @@
         <v>33</v>
       </c>
       <c r="E51">
-        <v>27.718845000000002</v>
+        <v>33.57</v>
       </c>
       <c r="F51" s="1">
         <f>(E51-C51)/C51*100</f>
-        <v>-16.003499999999995</v>
+        <v>1.727272727272728</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2989,7 +3197,13 @@
       <c r="C52" s="3">
         <v>42.2</v>
       </c>
-      <c r="F52" s="1"/>
+      <c r="E52">
+        <v>52.27</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" ref="F52:F60" si="1">(E52-C52)/C52*100</f>
+        <v>23.862559241706162</v>
+      </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="3">
@@ -3002,11 +3216,11 @@
         <v>49.8</v>
       </c>
       <c r="E53">
-        <v>56.479900000000001</v>
+        <v>56.38</v>
       </c>
       <c r="F53" s="1">
-        <f>(E53-C53)/C53*100</f>
-        <v>13.413453815261054</v>
+        <f t="shared" si="1"/>
+        <v>13.212851405622503</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3019,7 +3233,13 @@
       <c r="C54" s="3">
         <v>60.5</v>
       </c>
-      <c r="F54" s="1"/>
+      <c r="E54">
+        <v>53.48</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="1"/>
+        <v>-11.603305785123972</v>
+      </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3">
@@ -3032,11 +3252,11 @@
         <v>67</v>
       </c>
       <c r="E55">
-        <v>67.595060000000004</v>
+        <v>56.21</v>
       </c>
       <c r="F55" s="1">
-        <f>(E55-C55)/C55*100</f>
-        <v>0.88814925373134879</v>
+        <f t="shared" si="1"/>
+        <v>-16.104477611940297</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3049,7 +3269,13 @@
       <c r="C56" s="3">
         <v>70.5</v>
       </c>
-      <c r="F56" s="1"/>
+      <c r="E56">
+        <v>48.47</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="1"/>
+        <v>-31.248226950354614</v>
+      </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3">
@@ -3061,7 +3287,13 @@
       <c r="C57" s="3">
         <v>75.900000000000006</v>
       </c>
-      <c r="F57" s="1"/>
+      <c r="E57">
+        <v>49.01</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="1"/>
+        <v>-35.42819499341239</v>
+      </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3">
@@ -3074,11 +3306,11 @@
         <v>82.1</v>
       </c>
       <c r="E58">
-        <v>85.894490000000005</v>
+        <v>90.82</v>
       </c>
       <c r="F58" s="1">
-        <f>(E58-C58)/C58*100</f>
-        <v>4.6217904993909995</v>
+        <f t="shared" si="1"/>
+        <v>10.621193666260657</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3091,7 +3323,13 @@
       <c r="C59" s="3">
         <v>85.8</v>
       </c>
-      <c r="F59" s="1"/>
+      <c r="E59">
+        <v>69.459999999999994</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="1"/>
+        <v>-19.044289044289048</v>
+      </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="3">
@@ -3102,6 +3340,19 @@
       </c>
       <c r="C60" s="3">
         <v>91.7</v>
+      </c>
+      <c r="E60">
+        <v>74.760000000000005</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="1"/>
+        <v>-18.473282442748086</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="F61" s="1">
+        <f>AVERAGE(F51:F60)</f>
+        <v>-8.2477899787006344</v>
       </c>
     </row>
   </sheetData>

--- a/temp-time.xlsx
+++ b/temp-time.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9589AD0F-770E-47C8-8386-51037AECDB34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12C8752-E09C-4E5B-8E83-C03687CEFF97}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="In-situ" sheetId="2" r:id="rId2"/>
+    <sheet name="In-situ処理後" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>室温</t>
     <rPh sb="0" eb="2">
@@ -93,14 +95,43 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>val_split</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予測温度</t>
+    <rPh sb="0" eb="2">
+      <t>ヨソク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間 [min]</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="183" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -146,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -157,6 +188,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -728,124 +761,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>28.37</c:v>
+                  <c:v>23.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.19</c:v>
+                  <c:v>23.14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.72</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.49</c:v>
+                  <c:v>30.47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.51</c:v>
+                  <c:v>31.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.58</c:v>
+                  <c:v>32.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.81</c:v>
+                  <c:v>35.630000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.54</c:v>
+                  <c:v>31.58</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.43</c:v>
+                  <c:v>38.42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.54</c:v>
+                  <c:v>38.880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51.81</c:v>
+                  <c:v>40.68</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53.08</c:v>
+                  <c:v>42.65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47.14</c:v>
+                  <c:v>40.33</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>54.8</c:v>
+                  <c:v>45.83</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.21</c:v>
+                  <c:v>48.34</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>52.87</c:v>
+                  <c:v>43.18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44.08</c:v>
+                  <c:v>46.34</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>49.96</c:v>
+                  <c:v>51.29</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42.08</c:v>
+                  <c:v>46.41</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41.58</c:v>
+                  <c:v>48.05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>58.26</c:v>
+                  <c:v>55.64</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>61.4</c:v>
+                  <c:v>61.78</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>63.96</c:v>
+                  <c:v>59.67</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>55.14</c:v>
+                  <c:v>59.89</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>62.59</c:v>
+                  <c:v>62.2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>71.739999999999995</c:v>
+                  <c:v>65.41</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>65.61</c:v>
+                  <c:v>68.22</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>69.73</c:v>
+                  <c:v>69.19</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58.46</c:v>
+                  <c:v>66.349999999999994</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>65.709999999999994</c:v>
+                  <c:v>68.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>79.67</c:v>
+                  <c:v>75.63</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>84.09</c:v>
+                  <c:v>76.08</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>89.04</c:v>
+                  <c:v>79.33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>77.430000000000007</c:v>
+                  <c:v>74.8</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>94.23</c:v>
+                  <c:v>82.54</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>109.5</c:v>
+                  <c:v>85.06</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>118.71</c:v>
+                  <c:v>88.07</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>73.209999999999994</c:v>
+                  <c:v>80.92</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>73.78</c:v>
+                  <c:v>91.3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>63.06</c:v>
+                  <c:v>84.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,7 +1128,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$51:$A$60</c15:sqref>
@@ -1140,7 +1173,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$51:$C$60</c15:sqref>
@@ -1184,7 +1217,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-47A5-4400-925E-24B73DBD4734}"/>
                   </c:ext>
@@ -1219,7 +1252,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$51:$A$60</c15:sqref>
@@ -1264,7 +1297,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$51:$E$60</c15:sqref>
@@ -1275,40 +1308,40 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>33.57</c:v>
+                        <c:v>25.4</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>52.27</c:v>
+                        <c:v>49.95</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>56.38</c:v>
+                        <c:v>52.12</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>53.48</c:v>
+                        <c:v>55.74</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>56.21</c:v>
+                        <c:v>62.49</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>48.47</c:v>
+                        <c:v>49.08</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>49.01</c:v>
+                        <c:v>46.57</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>90.82</c:v>
+                        <c:v>78.7</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>69.459999999999994</c:v>
+                        <c:v>62.58</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>74.760000000000005</c:v>
+                        <c:v>79.83</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-47A5-4400-925E-24B73DBD4734}"/>
                   </c:ext>
@@ -1495,7 +1528,2615 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4164243142800937E-2"/>
+          <c:y val="4.1917957076881285E-2"/>
+          <c:w val="0.87596963107498127"/>
+          <c:h val="0.90083296433911531"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'In-situ'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>測定温度 [℃]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'In-situ'!$A$4:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'In-situ'!$C$4:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>63.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>85.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>83.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>83.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>86.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>88.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>94.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA62-4252-ADC0-FAE1BBC9D7C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'In-situ'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>学習結果(keras)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'In-situ'!$A$4:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'In-situ'!$E$4:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51.29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46.41</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55.64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61.78</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59.67</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>59.89</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65.41</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68.22</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>69.19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75.63</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>76.08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>79.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>82.54</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>85.06</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>88.07</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>80.92</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>91.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>84.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA62-4252-ADC0-FAE1BBC9D7C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>予測温度</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="15"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'In-situ'!$I$4:$I$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>8.6166666666666669E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2588333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4311666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60383333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77633333333333332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86266666666666658</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94883333333333331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0351666666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1215000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2076666666666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3803333333333332</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5528333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6391666666666667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7255</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8116666666666668</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9843333333333333</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0705</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1568333333333332</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2431666666666668</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.329333333333333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4155000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5018333333333334</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.6743333333333337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.7606666666666664</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.8468333333333335</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.9331666666666667</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.0194999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.1056666666666666</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.1920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.2783333333333333</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.3645</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.4508333333333336</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.5371666666666663</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.6234999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.7096666666666667</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.7959999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.882166666666667</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.9685000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.0548333333333328</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.1411666666666669</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.2273333333333332</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.3138333333333332</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.4863333333333335</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.5726666666666667</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.6590000000000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.7453333333333338</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.8315000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.9178333333333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.0040000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'In-situ'!$J$4:$J$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>29.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53.94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60.84</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45.45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57.89</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>73.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49.38</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>53.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>54.96</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60.36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48.18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>52.55</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60.73</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>54.69</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>59.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>59.16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>53.96</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>60.99</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>59.87</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>75.41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>63.94</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59.77</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>72.12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>75.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51.91</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>49.89</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>68.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>61.52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>81.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54.18</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>81.93</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>96.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>92.86</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>75.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>69.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>88.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AA62-4252-ADC0-FAE1BBC9D7C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="687371120"/>
+        <c:axId val="687377024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="687371120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687377024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="687377024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687371120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69356999686315379"/>
+          <c:y val="0.64174105376192281"/>
+          <c:w val="0.23856335986360921"/>
+          <c:h val="0.20612637356760724"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4164243142800937E-2"/>
+          <c:y val="4.1917957076881285E-2"/>
+          <c:w val="0.87596963107498127"/>
+          <c:h val="0.90083296433911531"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'In-situ処理後'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>測定温度 [℃]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'In-situ処理後'!$A$4:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'In-situ処理後'!$C$4:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>63.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>85.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>83.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>83.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>86.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>88.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>94.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-75F8-45C4-ACE9-F43A4E55E18C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'In-situ処理後'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>学習結果(keras)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'In-situ処理後'!$A$4:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'In-situ処理後'!$E$4:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51.29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46.41</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55.64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61.78</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59.67</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>59.89</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65.41</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68.22</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>69.19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75.63</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>76.08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>79.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>82.54</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>85.06</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>88.07</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>80.92</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>91.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>84.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-75F8-45C4-ACE9-F43A4E55E18C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>予測温度</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="15"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'In-situ処理後'!$I$4:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>8.6166666666666669E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2588333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4311666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60383333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77633333333333332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86266666666666658</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94883333333333331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0351666666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1215000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.294</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3803333333333332</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5528333333333333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6391666666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7255</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8116666666666668</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0705</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1568333333333332</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2431666666666668</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.329333333333333</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4155000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5018333333333334</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6743333333333337</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7606666666666664</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.8468333333333335</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9331666666666667</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0194999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1056666666666666</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.1920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.2783333333333333</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.3645</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.4508333333333336</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.5371666666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.6234999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.7096666666666667</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.7959999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0548333333333328</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2273333333333332</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4863333333333335</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5726666666666667</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6590000000000007</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.9178333333333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.0040000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'In-situ処理後'!$J$4:$J$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>29.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50.31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45.45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57.89</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.38</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>55.26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>53.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54.96</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60.36</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>48.18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>52.55</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60.73</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>54.69</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>59.34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>59.16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53.96</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60.99</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>59.87</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>75.41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>63.94</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>59.77</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>72.12</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>75.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>68.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>81.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>81.93</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>96.52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>92.86</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>88.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-75F8-45C4-ACE9-F43A4E55E18C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="687371120"/>
+        <c:axId val="687377024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="687371120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687377024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="687377024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687371120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69356999686315379"/>
+          <c:y val="0.64174105376192281"/>
+          <c:w val="0.23856335986360921"/>
+          <c:h val="0.20612637356760724"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2051,20 +4692,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2076,6 +5749,90 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B23C18B2-6668-4EBE-8618-FB6ED35CE1EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E16BDB8-A631-4F08-83F7-0AEF6E5C22A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2357,8 +6114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R48" sqref="R48"/>
+    <sheetView topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2371,7 +6128,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3">
+      <c r="A1" s="6">
         <v>43506</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2412,11 +6169,11 @@
         <v>21.4</v>
       </c>
       <c r="E4" s="4">
-        <v>28.37</v>
+        <v>23.9</v>
       </c>
       <c r="F4" s="1">
         <f>(E4-C4)/C4*100</f>
-        <v>32.570093457943941</v>
+        <v>11.682242990654206</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -2431,11 +6188,11 @@
         <v>24</v>
       </c>
       <c r="E5" s="4">
-        <v>28.19</v>
+        <v>23.14</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ref="F5:F43" si="0">(E5-C5)/C5*100</f>
-        <v>17.458333333333339</v>
+        <v>-3.5833333333333308</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -2450,11 +6207,11 @@
         <v>26.5</v>
       </c>
       <c r="E6" s="4">
-        <v>24.72</v>
+        <v>25.5</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>-6.7169811320754764</v>
+        <v>-3.7735849056603774</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -2469,11 +6226,11 @@
         <v>34.5</v>
       </c>
       <c r="E7" s="4">
-        <v>33.49</v>
+        <v>30.47</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>-2.9275362318840523</v>
+        <v>-11.681159420289857</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2487,11 +6244,11 @@
         <v>30.8</v>
       </c>
       <c r="E8" s="4">
-        <v>35.51</v>
+        <v>31.9</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>15.292207792207781</v>
+        <v>3.5714285714285641</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2505,11 +6262,11 @@
         <v>34.6</v>
       </c>
       <c r="E9" s="4">
-        <v>40.58</v>
+        <v>32.06</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>17.283236994219646</v>
+        <v>-7.3410404624277437</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2523,11 +6280,11 @@
         <v>33</v>
       </c>
       <c r="E10" s="4">
-        <v>38.81</v>
+        <v>35.630000000000003</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>17.606060606060613</v>
+        <v>7.9696969696969777</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2541,11 +6298,11 @@
         <v>34</v>
       </c>
       <c r="E11" s="4">
-        <v>38.54</v>
+        <v>31.58</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>13.352941176470587</v>
+        <v>-7.1176470588235343</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2560,11 +6317,11 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="4">
-        <v>37.43</v>
+        <v>38.42</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>-10.880952380952381</v>
+        <v>-8.5238095238095202</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2579,11 +6336,11 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="4">
-        <v>50.54</v>
+        <v>38.880000000000003</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>32.999999999999993</v>
+        <v>2.3157894736842173</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2597,11 +6354,11 @@
         <v>43.1</v>
       </c>
       <c r="E14" s="4">
-        <v>51.81</v>
+        <v>40.68</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>20.208816705336428</v>
+        <v>-5.6148491879350386</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2615,11 +6372,11 @@
         <v>42.3</v>
       </c>
       <c r="E15" s="4">
-        <v>53.08</v>
+        <v>42.65</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>25.484633569739955</v>
+        <v>0.82742316784870318</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2633,11 +6390,11 @@
         <v>48.2</v>
       </c>
       <c r="E16" s="4">
-        <v>47.14</v>
+        <v>40.33</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>-2.1991701244813324</v>
+        <v>-16.327800829875528</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2651,11 +6408,11 @@
         <v>47.9</v>
       </c>
       <c r="E17" s="4">
-        <v>54.8</v>
+        <v>45.83</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>14.40501043841336</v>
+        <v>-4.3215031315240093</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2670,11 +6427,11 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="4">
-        <v>50.21</v>
+        <v>48.34</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.21956087824351184</v>
+        <v>-3.5129740518962032</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2689,11 +6446,11 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="4">
-        <v>52.87</v>
+        <v>43.18</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>5.1093439363817108</v>
+        <v>-14.155069582504968</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2708,11 +6465,11 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="4">
-        <v>44.08</v>
+        <v>46.34</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>-14.074074074074073</v>
+        <v>-9.6686159844054451</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2726,11 +6483,11 @@
         <v>57.9</v>
       </c>
       <c r="E21" s="4">
-        <v>49.96</v>
+        <v>51.29</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>-13.713298791018994</v>
+        <v>-11.416234887737478</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2744,11 +6501,11 @@
         <v>55</v>
       </c>
       <c r="E22" s="4">
-        <v>42.08</v>
+        <v>46.41</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>-23.490909090909092</v>
+        <v>-15.618181818181826</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2762,11 +6519,11 @@
         <v>56.7</v>
       </c>
       <c r="E23" s="4">
-        <v>41.58</v>
+        <v>48.05</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>-26.666666666666671</v>
+        <v>-15.255731922398599</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2780,11 +6537,11 @@
         <v>59.2</v>
       </c>
       <c r="E24" s="4">
-        <v>58.26</v>
+        <v>55.64</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>-1.5878378378378459</v>
+        <v>-6.0135135135135176</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2798,11 +6555,11 @@
         <v>68.900000000000006</v>
       </c>
       <c r="E25" s="4">
-        <v>61.4</v>
+        <v>61.78</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>-10.885341074020328</v>
+        <v>-10.333817126269961</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2816,11 +6573,11 @@
         <v>63.6</v>
       </c>
       <c r="E26" s="4">
-        <v>63.96</v>
+        <v>59.67</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0.5660377358490557</v>
+        <v>-6.1792452830188669</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2834,11 +6591,11 @@
         <v>66.099999999999994</v>
       </c>
       <c r="E27" s="4">
-        <v>55.14</v>
+        <v>59.89</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>-16.580937972768524</v>
+        <v>-9.3948562783661043</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2852,11 +6609,11 @@
         <v>67.099999999999994</v>
       </c>
       <c r="E28" s="4">
-        <v>62.59</v>
+        <v>62.2</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>-6.7213114754098235</v>
+        <v>-7.302533532041716</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2870,11 +6627,11 @@
         <v>69</v>
       </c>
       <c r="E29" s="4">
-        <v>71.739999999999995</v>
+        <v>65.41</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>3.9710144927536155</v>
+        <v>-5.2028985507246421</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2888,11 +6645,11 @@
         <v>71.8</v>
       </c>
       <c r="E30" s="4">
-        <v>65.61</v>
+        <v>68.22</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>-8.6211699164345372</v>
+        <v>-4.9860724233983262</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2906,11 +6663,11 @@
         <v>75.900000000000006</v>
       </c>
       <c r="E31" s="4">
-        <v>69.73</v>
+        <v>69.19</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>-8.1291172595520429</v>
+        <v>-8.8405797101449366</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2924,11 +6681,11 @@
         <v>75</v>
       </c>
       <c r="E32" s="4">
-        <v>58.46</v>
+        <v>66.349999999999994</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>-22.053333333333335</v>
+        <v>-11.533333333333342</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2942,11 +6699,11 @@
         <v>77.5</v>
       </c>
       <c r="E33" s="4">
-        <v>65.709999999999994</v>
+        <v>68.260000000000005</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>-15.212903225806459</v>
+        <v>-11.922580645161283</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2960,11 +6717,11 @@
         <v>85.6</v>
       </c>
       <c r="E34" s="4">
-        <v>79.67</v>
+        <v>75.63</v>
       </c>
       <c r="F34" s="1">
         <f>(E34-C34)/C34*100</f>
-        <v>-6.9275700934579358</v>
+        <v>-11.647196261682243</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2978,11 +6735,11 @@
         <v>79.5</v>
       </c>
       <c r="E35" s="4">
-        <v>84.09</v>
+        <v>76.08</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>5.7735849056603818</v>
+        <v>-4.3018867924528328</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2996,11 +6753,11 @@
         <v>83.1</v>
       </c>
       <c r="E36" s="4">
-        <v>89.04</v>
+        <v>79.33</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>7.1480144404332284</v>
+        <v>-4.5367027677496941</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3014,11 +6771,11 @@
         <v>83.3</v>
       </c>
       <c r="E37" s="4">
-        <v>77.430000000000007</v>
+        <v>74.8</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>-7.0468187274909848</v>
+        <v>-10.204081632653061</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3032,11 +6789,11 @@
         <v>86.1</v>
       </c>
       <c r="E38" s="4">
-        <v>94.23</v>
+        <v>82.54</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>9.4425087108014054</v>
+        <v>-4.1347270615563163</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3050,11 +6807,11 @@
         <v>91</v>
       </c>
       <c r="E39" s="4">
-        <v>109.5</v>
+        <v>85.06</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>20.329670329670328</v>
+        <v>-6.5274725274725247</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3068,11 +6825,11 @@
         <v>88.6</v>
       </c>
       <c r="E40" s="4">
-        <v>118.71</v>
+        <v>88.07</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>33.984198645598198</v>
+        <v>-0.59819413092550922</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3086,11 +6843,11 @@
         <v>92</v>
       </c>
       <c r="E41" s="4">
-        <v>73.209999999999994</v>
+        <v>80.92</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>-20.423913043478269</v>
+        <v>-12.043478260869565</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3104,11 +6861,11 @@
         <v>94.2</v>
       </c>
       <c r="E42" s="4">
-        <v>73.78</v>
+        <v>91.3</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>-21.677282377919322</v>
+        <v>-3.078556263269645</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3122,11 +6879,11 @@
         <v>94</v>
       </c>
       <c r="E43" s="4">
-        <v>63.06</v>
+        <v>84.89</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>-32.914893617021271</v>
+        <v>-9.6914893617021267</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3135,7 +6892,7 @@
       </c>
       <c r="F44" s="1">
         <f>AVERAGE(F4:F43)</f>
-        <v>0.34383124256310837</v>
+        <v>-6.5004542595949228</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3180,11 +6937,11 @@
         <v>33</v>
       </c>
       <c r="E51">
-        <v>33.57</v>
+        <v>25.4</v>
       </c>
       <c r="F51" s="1">
         <f>(E51-C51)/C51*100</f>
-        <v>1.727272727272728</v>
+        <v>-23.030303030303035</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3198,11 +6955,11 @@
         <v>42.2</v>
       </c>
       <c r="E52">
-        <v>52.27</v>
+        <v>49.95</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" ref="F52:F60" si="1">(E52-C52)/C52*100</f>
-        <v>23.862559241706162</v>
+        <v>18.364928909952603</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3216,11 +6973,11 @@
         <v>49.8</v>
       </c>
       <c r="E53">
-        <v>56.38</v>
+        <v>52.12</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="1"/>
-        <v>13.212851405622503</v>
+        <v>4.6586345381526106</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3234,11 +6991,11 @@
         <v>60.5</v>
       </c>
       <c r="E54">
-        <v>53.48</v>
+        <v>55.74</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="1"/>
-        <v>-11.603305785123972</v>
+        <v>-7.8677685950413192</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3252,11 +7009,11 @@
         <v>67</v>
       </c>
       <c r="E55">
-        <v>56.21</v>
+        <v>62.49</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="1"/>
-        <v>-16.104477611940297</v>
+        <v>-6.7313432835820866</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3270,11 +7027,11 @@
         <v>70.5</v>
       </c>
       <c r="E56">
-        <v>48.47</v>
+        <v>49.08</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="1"/>
-        <v>-31.248226950354614</v>
+        <v>-30.382978723404257</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3288,11 +7045,11 @@
         <v>75.900000000000006</v>
       </c>
       <c r="E57">
-        <v>49.01</v>
+        <v>46.57</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="1"/>
-        <v>-35.42819499341239</v>
+        <v>-38.642951251646906</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3306,11 +7063,11 @@
         <v>82.1</v>
       </c>
       <c r="E58">
-        <v>90.82</v>
+        <v>78.7</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="1"/>
-        <v>10.621193666260657</v>
+        <v>-4.1412911084043751</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3324,11 +7081,11 @@
         <v>85.8</v>
       </c>
       <c r="E59">
-        <v>69.459999999999994</v>
+        <v>62.58</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="1"/>
-        <v>-19.044289044289048</v>
+        <v>-27.062937062937063</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3342,17 +7099,3061 @@
         <v>91.7</v>
       </c>
       <c r="E60">
-        <v>74.760000000000005</v>
+        <v>79.83</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="1"/>
-        <v>-18.473282442748086</v>
+        <v>-12.944383860414399</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="F61" s="1">
         <f>AVERAGE(F51:F60)</f>
-        <v>-8.2477899787006344</v>
+        <v>-12.778039346762824</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F01486-66CA-431E-83AA-849E5D16D499}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:K61"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="6">
+        <v>43506</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>23.9</v>
+      </c>
+      <c r="F4" s="1">
+        <f>(E4-C4)/C4*100</f>
+        <v>11.682242990654206</v>
+      </c>
+      <c r="H4">
+        <v>5.17</v>
+      </c>
+      <c r="I4" s="7">
+        <f>H4/60</f>
+        <v>8.6166666666666669E-2</v>
+      </c>
+      <c r="J4">
+        <v>29.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4">
+        <v>23.14</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F43" si="0">(E5-C5)/C5*100</f>
+        <v>-3.5833333333333308</v>
+      </c>
+      <c r="H5">
+        <v>10.35</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" ref="I5:I63" si="1">H5/60</f>
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="J5">
+        <v>29.01</v>
+      </c>
+      <c r="K5">
+        <f>J5-J4</f>
+        <v>-0.9599999999999973</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.7735849056603774</v>
+      </c>
+      <c r="H6">
+        <v>15.53</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2588333333333333</v>
+      </c>
+      <c r="J6">
+        <v>28.27</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K61" si="2">J6-J5</f>
+        <v>-0.74000000000000199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>30.47</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>-11.681159420289857</v>
+      </c>
+      <c r="H7">
+        <v>20.7</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="J7">
+        <v>27.22</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>-1.0500000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>30.8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>31.9</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285641</v>
+      </c>
+      <c r="H8">
+        <v>25.87</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.4311666666666667</v>
+      </c>
+      <c r="J8">
+        <v>31.44</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>4.2200000000000024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>34.6</v>
+      </c>
+      <c r="E9" s="4">
+        <v>32.06</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.3410404624277437</v>
+      </c>
+      <c r="H9">
+        <v>31.05</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="J9">
+        <v>27.48</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>-3.9600000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4">
+        <v>35.630000000000003</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>7.9696969696969777</v>
+      </c>
+      <c r="H10">
+        <v>36.229999999999997</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.60383333333333333</v>
+      </c>
+      <c r="J10">
+        <v>36.340000000000003</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>8.860000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>14.2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>34</v>
+      </c>
+      <c r="E11" s="4">
+        <v>31.58</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.1176470588235343</v>
+      </c>
+      <c r="H11">
+        <v>41.4</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.69</v>
+      </c>
+      <c r="J11">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4">
+        <v>38.42</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.5238095238095202</v>
+      </c>
+      <c r="H12">
+        <v>46.58</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="1"/>
+        <v>0.77633333333333332</v>
+      </c>
+      <c r="J12">
+        <v>35.9</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>-0.69000000000000483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3157894736842173</v>
+      </c>
+      <c r="H13">
+        <v>51.76</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.86266666666666658</v>
+      </c>
+      <c r="J13">
+        <v>44.29</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>8.39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43.1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>40.68</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.6148491879350386</v>
+      </c>
+      <c r="H14">
+        <v>56.93</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.94883333333333331</v>
+      </c>
+      <c r="J14">
+        <v>42.58</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>-1.7100000000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B15" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>42.3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>42.65</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.82742316784870318</v>
+      </c>
+      <c r="H15">
+        <v>62.11</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0351666666666666</v>
+      </c>
+      <c r="J15">
+        <v>45.45</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>2.8700000000000045</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>48.2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>40.33</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>-16.327800829875528</v>
+      </c>
+      <c r="H16">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="1"/>
+        <v>1.1215000000000002</v>
+      </c>
+      <c r="J16">
+        <v>43.16</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>-2.2900000000000063</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C17" s="3">
+        <v>47.9</v>
+      </c>
+      <c r="E17" s="4">
+        <v>45.83</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.3215031315240093</v>
+      </c>
+      <c r="H17">
+        <v>72.459999999999994</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2076666666666667</v>
+      </c>
+      <c r="J17">
+        <v>53.94</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>10.780000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3">
+        <v>50.1</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4">
+        <v>48.34</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.5129740518962032</v>
+      </c>
+      <c r="H18">
+        <v>77.64</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="1"/>
+        <v>1.294</v>
+      </c>
+      <c r="J18">
+        <v>47.75</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>-6.1899999999999977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3">
+        <v>50.3</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4">
+        <v>43.18</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>-14.155069582504968</v>
+      </c>
+      <c r="H19">
+        <v>82.82</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="1"/>
+        <v>1.3803333333333332</v>
+      </c>
+      <c r="J19">
+        <v>49</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>51.3</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4">
+        <v>46.34</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.6686159844054451</v>
+      </c>
+      <c r="H20">
+        <v>88</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="1"/>
+        <v>1.4666666666666666</v>
+      </c>
+      <c r="J20">
+        <v>60.84</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>11.840000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="B21" s="3">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3">
+        <v>57.9</v>
+      </c>
+      <c r="E21" s="4">
+        <v>51.29</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>-11.416234887737478</v>
+      </c>
+      <c r="H21">
+        <v>93.17</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="1"/>
+        <v>1.5528333333333333</v>
+      </c>
+      <c r="J21">
+        <v>50.31</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>-10.530000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>55</v>
+      </c>
+      <c r="E22" s="4">
+        <v>46.41</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>-15.618181818181826</v>
+      </c>
+      <c r="H22">
+        <v>98.35</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="1"/>
+        <v>1.6391666666666667</v>
+      </c>
+      <c r="J22">
+        <v>45.45</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>-4.8599999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="B23" s="3">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3">
+        <v>56.7</v>
+      </c>
+      <c r="E23" s="4">
+        <v>48.05</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>-15.255731922398599</v>
+      </c>
+      <c r="H23">
+        <v>103.53</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="1"/>
+        <v>1.7255</v>
+      </c>
+      <c r="J23">
+        <v>42.3</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>-3.1500000000000057</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="B24" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="C24" s="3">
+        <v>59.2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>55.64</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.0135135135135176</v>
+      </c>
+      <c r="H24">
+        <v>108.7</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8116666666666668</v>
+      </c>
+      <c r="J24">
+        <v>57.89</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>15.590000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="3">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="E25" s="4">
+        <v>61.78</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>-10.333817126269961</v>
+      </c>
+      <c r="H25">
+        <v>113.88</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8979999999999999</v>
+      </c>
+      <c r="J25">
+        <v>53.4</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>-4.490000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="3">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>63.6</v>
+      </c>
+      <c r="E26" s="4">
+        <v>59.67</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.1792452830188669</v>
+      </c>
+      <c r="H26">
+        <v>119.06</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9843333333333333</v>
+      </c>
+      <c r="J26">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>20.280000000000008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="3">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="E27" s="4">
+        <v>59.89</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.3948562783661043</v>
+      </c>
+      <c r="H27">
+        <v>124.23</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="1"/>
+        <v>2.0705</v>
+      </c>
+      <c r="J27">
+        <v>51</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>-22.680000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="3">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E28" s="4">
+        <v>62.2</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.302533532041716</v>
+      </c>
+      <c r="H28">
+        <v>129.41</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1568333333333332</v>
+      </c>
+      <c r="J28">
+        <v>49.38</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>-1.6199999999999974</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="3">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="C29" s="3">
+        <v>69</v>
+      </c>
+      <c r="E29" s="4">
+        <v>65.41</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.2028985507246421</v>
+      </c>
+      <c r="H29">
+        <v>134.59</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="1"/>
+        <v>2.2431666666666668</v>
+      </c>
+      <c r="J29">
+        <v>55.26</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>5.8799999999999955</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="B30" s="3">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3">
+        <v>71.8</v>
+      </c>
+      <c r="E30" s="4">
+        <v>68.22</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.9860724233983262</v>
+      </c>
+      <c r="H30">
+        <v>139.76</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="1"/>
+        <v>2.329333333333333</v>
+      </c>
+      <c r="J30">
+        <v>45.9</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>-9.36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="B31" s="3">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="E31" s="4">
+        <v>69.19</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.8405797101449366</v>
+      </c>
+      <c r="H31">
+        <v>144.93</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="1"/>
+        <v>2.4155000000000002</v>
+      </c>
+      <c r="J31">
+        <v>53.1</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>7.2000000000000028</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="B32" s="3">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3">
+        <v>75</v>
+      </c>
+      <c r="E32" s="4">
+        <v>66.349999999999994</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>-11.533333333333342</v>
+      </c>
+      <c r="H32">
+        <v>150.11000000000001</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="1"/>
+        <v>2.5018333333333334</v>
+      </c>
+      <c r="J32">
+        <v>54.96</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>1.8599999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="B33" s="3">
+        <v>15</v>
+      </c>
+      <c r="C33" s="3">
+        <v>77.5</v>
+      </c>
+      <c r="E33" s="4">
+        <v>68.260000000000005</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>-11.922580645161283</v>
+      </c>
+      <c r="H33">
+        <v>155.28</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="1"/>
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="J33">
+        <v>60.36</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>5.3999999999999986</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>85.6</v>
+      </c>
+      <c r="E34" s="4">
+        <v>75.63</v>
+      </c>
+      <c r="F34" s="1">
+        <f>(E34-C34)/C34*100</f>
+        <v>-11.647196261682243</v>
+      </c>
+      <c r="H34">
+        <v>160.46</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="1"/>
+        <v>2.6743333333333337</v>
+      </c>
+      <c r="J34">
+        <v>48.18</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>-12.18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="3">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C35" s="3">
+        <v>79.5</v>
+      </c>
+      <c r="E35" s="4">
+        <v>76.08</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.3018867924528328</v>
+      </c>
+      <c r="H35">
+        <v>165.64</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" si="1"/>
+        <v>2.7606666666666664</v>
+      </c>
+      <c r="J35">
+        <v>52.55</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>4.3699999999999974</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="C36" s="3">
+        <v>83.1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>79.33</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.5367027677496941</v>
+      </c>
+      <c r="H36">
+        <v>170.81</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="1"/>
+        <v>2.8468333333333335</v>
+      </c>
+      <c r="J36">
+        <v>60.73</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="3">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3">
+        <v>14</v>
+      </c>
+      <c r="C37" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="E37" s="4">
+        <v>74.8</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>-10.204081632653061</v>
+      </c>
+      <c r="H37">
+        <v>175.99</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9331666666666667</v>
+      </c>
+      <c r="J37">
+        <v>54.69</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>-6.0399999999999991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="3">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="C38" s="3">
+        <v>86.1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>82.54</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.1347270615563163</v>
+      </c>
+      <c r="H38">
+        <v>181.17</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" si="1"/>
+        <v>3.0194999999999999</v>
+      </c>
+      <c r="J38">
+        <v>59.34</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>4.6500000000000057</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B39" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="C39" s="3">
+        <v>91</v>
+      </c>
+      <c r="E39" s="4">
+        <v>85.06</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.5274725274725247</v>
+      </c>
+      <c r="H39">
+        <v>186.34</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" si="1"/>
+        <v>3.1056666666666666</v>
+      </c>
+      <c r="J39">
+        <v>59.16</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>-0.18000000000000682</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B40" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C40" s="3">
+        <v>88.6</v>
+      </c>
+      <c r="E40" s="4">
+        <v>88.07</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.59819413092550922</v>
+      </c>
+      <c r="H40">
+        <v>191.52</v>
+      </c>
+      <c r="I40" s="7">
+        <f t="shared" si="1"/>
+        <v>3.1920000000000002</v>
+      </c>
+      <c r="J40">
+        <v>53.96</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>-5.1999999999999957</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B41" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="C41" s="3">
+        <v>92</v>
+      </c>
+      <c r="E41" s="4">
+        <v>80.92</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>-12.043478260869565</v>
+      </c>
+      <c r="H41">
+        <v>196.7</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" si="1"/>
+        <v>3.2783333333333333</v>
+      </c>
+      <c r="J41">
+        <v>60.99</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>7.0300000000000011</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="3">
+        <v>5</v>
+      </c>
+      <c r="B42" s="3">
+        <v>13</v>
+      </c>
+      <c r="C42" s="3">
+        <v>94.2</v>
+      </c>
+      <c r="E42" s="4">
+        <v>91.3</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.078556263269645</v>
+      </c>
+      <c r="H42">
+        <v>201.87</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" si="1"/>
+        <v>3.3645</v>
+      </c>
+      <c r="J42">
+        <v>59.87</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>-1.1200000000000045</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="3">
+        <v>5</v>
+      </c>
+      <c r="B43" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C43" s="3">
+        <v>94</v>
+      </c>
+      <c r="E43" s="4">
+        <v>84.89</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.6914893617021267</v>
+      </c>
+      <c r="H43">
+        <v>207.05</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" si="1"/>
+        <v>3.4508333333333336</v>
+      </c>
+      <c r="J43">
+        <v>75.41</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>15.54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="E44">
+        <v>4096</v>
+      </c>
+      <c r="F44" s="1">
+        <f>AVERAGE(F4:F43)</f>
+        <v>-6.5004542595949228</v>
+      </c>
+      <c r="H44">
+        <v>212.23</v>
+      </c>
+      <c r="I44" s="7">
+        <f t="shared" si="1"/>
+        <v>3.5371666666666663</v>
+      </c>
+      <c r="J44">
+        <v>63.94</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>-11.469999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="E45">
+        <v>512</v>
+      </c>
+      <c r="H45">
+        <v>217.41</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" si="1"/>
+        <v>3.6234999999999999</v>
+      </c>
+      <c r="J45">
+        <v>59.77</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>-4.1699999999999946</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="E46" s="5">
+        <v>128</v>
+      </c>
+      <c r="H46">
+        <v>222.58</v>
+      </c>
+      <c r="I46" s="7">
+        <f t="shared" si="1"/>
+        <v>3.7096666666666667</v>
+      </c>
+      <c r="J46">
+        <v>72.12</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>12.350000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>227.76</v>
+      </c>
+      <c r="I47" s="7">
+        <f t="shared" si="1"/>
+        <v>3.7959999999999998</v>
+      </c>
+      <c r="J47">
+        <v>75.319999999999993</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>3.1999999999999886</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>50</v>
+      </c>
+      <c r="H48">
+        <v>232.93</v>
+      </c>
+      <c r="I48" s="7">
+        <f t="shared" si="1"/>
+        <v>3.882166666666667</v>
+      </c>
+      <c r="J48">
+        <v>51.91</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>-23.409999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>238.11</v>
+      </c>
+      <c r="I49" s="7">
+        <f t="shared" si="1"/>
+        <v>3.9685000000000001</v>
+      </c>
+      <c r="J49">
+        <v>49.89</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>-2.019999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>243.29</v>
+      </c>
+      <c r="I50" s="7">
+        <f t="shared" si="1"/>
+        <v>4.0548333333333328</v>
+      </c>
+      <c r="J50">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>18.760000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="H51">
+        <v>248.47</v>
+      </c>
+      <c r="I51" s="7">
+        <f t="shared" si="1"/>
+        <v>4.1411666666666669</v>
+      </c>
+      <c r="J51">
+        <v>61.52</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>-7.1300000000000026</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="H52">
+        <v>253.64</v>
+      </c>
+      <c r="I52" s="7">
+        <f t="shared" si="1"/>
+        <v>4.2273333333333332</v>
+      </c>
+      <c r="J52">
+        <v>81.510000000000005</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>19.990000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="H53">
+        <v>258.83</v>
+      </c>
+      <c r="I53" s="7">
+        <f t="shared" si="1"/>
+        <v>4.3138333333333332</v>
+      </c>
+      <c r="J53">
+        <v>54.18</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>-27.330000000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="H54">
+        <v>264</v>
+      </c>
+      <c r="I54" s="7">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J54">
+        <v>81.93</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="2"/>
+        <v>27.750000000000007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="H55">
+        <v>269.18</v>
+      </c>
+      <c r="I55" s="7">
+        <f t="shared" si="1"/>
+        <v>4.4863333333333335</v>
+      </c>
+      <c r="J55">
+        <v>96.99</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="2"/>
+        <v>15.059999999999988</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="H56">
+        <v>274.36</v>
+      </c>
+      <c r="I56" s="7">
+        <f t="shared" si="1"/>
+        <v>4.5726666666666667</v>
+      </c>
+      <c r="J56">
+        <v>96.52</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>-0.46999999999999886</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="H57">
+        <v>279.54000000000002</v>
+      </c>
+      <c r="I57" s="7">
+        <f t="shared" si="1"/>
+        <v>4.6590000000000007</v>
+      </c>
+      <c r="J57">
+        <v>92.86</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>-3.6599999999999966</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="H58">
+        <v>284.72000000000003</v>
+      </c>
+      <c r="I58" s="7">
+        <f t="shared" si="1"/>
+        <v>4.7453333333333338</v>
+      </c>
+      <c r="J58">
+        <v>75.819999999999993</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="2"/>
+        <v>-17.040000000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="H59">
+        <v>289.89</v>
+      </c>
+      <c r="I59" s="7">
+        <f t="shared" si="1"/>
+        <v>4.8315000000000001</v>
+      </c>
+      <c r="J59">
+        <v>69.569999999999993</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>-6.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="H60">
+        <v>295.07</v>
+      </c>
+      <c r="I60" s="7">
+        <f t="shared" si="1"/>
+        <v>4.9178333333333333</v>
+      </c>
+      <c r="J60">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>11.030000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="H61">
+        <v>300.24</v>
+      </c>
+      <c r="I61" s="7">
+        <f t="shared" si="1"/>
+        <v>5.0040000000000004</v>
+      </c>
+      <c r="J61">
+        <v>88.89</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="2"/>
+        <v>8.2900000000000063</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3583BA-BD0C-47CB-8855-ED87D253F6D6}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:J52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="6">
+        <v>43506</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>23.9</v>
+      </c>
+      <c r="F4" s="1">
+        <f>(E4-C4)/C4*100</f>
+        <v>11.682242990654206</v>
+      </c>
+      <c r="H4">
+        <v>5.17</v>
+      </c>
+      <c r="I4" s="7">
+        <f>H4/60</f>
+        <v>8.6166666666666669E-2</v>
+      </c>
+      <c r="J4">
+        <v>29.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4">
+        <v>23.14</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F43" si="0">(E5-C5)/C5*100</f>
+        <v>-3.5833333333333308</v>
+      </c>
+      <c r="H5">
+        <v>10.35</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" ref="I5:I52" si="1">H5/60</f>
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="J5">
+        <v>29.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.7735849056603774</v>
+      </c>
+      <c r="H6">
+        <v>15.53</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2588333333333333</v>
+      </c>
+      <c r="J6">
+        <v>28.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>30.47</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>-11.681159420289857</v>
+      </c>
+      <c r="H7">
+        <v>20.7</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="J7">
+        <v>27.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>30.8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>31.9</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285641</v>
+      </c>
+      <c r="H8">
+        <v>25.87</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.4311666666666667</v>
+      </c>
+      <c r="J8">
+        <v>31.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>34.6</v>
+      </c>
+      <c r="E9" s="4">
+        <v>32.06</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.3410404624277437</v>
+      </c>
+      <c r="H9">
+        <v>31.05</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="J9">
+        <v>27.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4">
+        <v>35.630000000000003</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>7.9696969696969777</v>
+      </c>
+      <c r="H10">
+        <v>36.229999999999997</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.60383333333333333</v>
+      </c>
+      <c r="J10">
+        <v>36.340000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>14.2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>34</v>
+      </c>
+      <c r="E11" s="4">
+        <v>31.58</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.1176470588235343</v>
+      </c>
+      <c r="H11">
+        <v>41.4</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.69</v>
+      </c>
+      <c r="J11">
+        <v>36.590000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4">
+        <v>38.42</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.5238095238095202</v>
+      </c>
+      <c r="H12">
+        <v>46.58</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="1"/>
+        <v>0.77633333333333332</v>
+      </c>
+      <c r="J12">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3157894736842173</v>
+      </c>
+      <c r="H13">
+        <v>51.76</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.86266666666666658</v>
+      </c>
+      <c r="J13">
+        <v>44.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43.1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>40.68</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.6148491879350386</v>
+      </c>
+      <c r="H14">
+        <v>56.93</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.94883333333333331</v>
+      </c>
+      <c r="J14">
+        <v>42.58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B15" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>42.3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>42.65</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.82742316784870318</v>
+      </c>
+      <c r="H15">
+        <v>62.11</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0351666666666666</v>
+      </c>
+      <c r="J15">
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>48.2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>40.33</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>-16.327800829875528</v>
+      </c>
+      <c r="H16">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="1"/>
+        <v>1.1215000000000002</v>
+      </c>
+      <c r="J16">
+        <v>43.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C17" s="3">
+        <v>47.9</v>
+      </c>
+      <c r="E17" s="4">
+        <v>45.83</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.3215031315240093</v>
+      </c>
+      <c r="H17">
+        <v>77.64</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="1"/>
+        <v>1.294</v>
+      </c>
+      <c r="J17">
+        <v>47.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3">
+        <v>50.1</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4">
+        <v>48.34</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.5129740518962032</v>
+      </c>
+      <c r="H18">
+        <v>82.82</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="1"/>
+        <v>1.3803333333333332</v>
+      </c>
+      <c r="J18">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3">
+        <v>50.3</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4">
+        <v>43.18</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>-14.155069582504968</v>
+      </c>
+      <c r="H19">
+        <v>93.17</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="1"/>
+        <v>1.5528333333333333</v>
+      </c>
+      <c r="J19">
+        <v>50.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>51.3</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4">
+        <v>46.34</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.6686159844054451</v>
+      </c>
+      <c r="H20">
+        <v>98.35</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="1"/>
+        <v>1.6391666666666667</v>
+      </c>
+      <c r="J20">
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="B21" s="3">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3">
+        <v>57.9</v>
+      </c>
+      <c r="E21" s="4">
+        <v>51.29</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>-11.416234887737478</v>
+      </c>
+      <c r="H21">
+        <v>103.53</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="1"/>
+        <v>1.7255</v>
+      </c>
+      <c r="J21">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>55</v>
+      </c>
+      <c r="E22" s="4">
+        <v>46.41</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>-15.618181818181826</v>
+      </c>
+      <c r="H22">
+        <v>108.7</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8116666666666668</v>
+      </c>
+      <c r="J22">
+        <v>57.89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="B23" s="3">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3">
+        <v>56.7</v>
+      </c>
+      <c r="E23" s="4">
+        <v>48.05</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>-15.255731922398599</v>
+      </c>
+      <c r="H23">
+        <v>113.88</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8979999999999999</v>
+      </c>
+      <c r="J23">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="B24" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="C24" s="3">
+        <v>59.2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>55.64</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.0135135135135176</v>
+      </c>
+      <c r="H24">
+        <v>124.23</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="1"/>
+        <v>2.0705</v>
+      </c>
+      <c r="J24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="E25" s="4">
+        <v>61.78</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>-10.333817126269961</v>
+      </c>
+      <c r="H25">
+        <v>129.41</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1568333333333332</v>
+      </c>
+      <c r="J25">
+        <v>49.38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>63.6</v>
+      </c>
+      <c r="E26" s="4">
+        <v>59.67</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.1792452830188669</v>
+      </c>
+      <c r="H26">
+        <v>134.59</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="1"/>
+        <v>2.2431666666666668</v>
+      </c>
+      <c r="J26">
+        <v>55.26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="E27" s="4">
+        <v>59.89</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.3948562783661043</v>
+      </c>
+      <c r="H27">
+        <v>139.76</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="1"/>
+        <v>2.329333333333333</v>
+      </c>
+      <c r="J27">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="3">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E28" s="4">
+        <v>62.2</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.302533532041716</v>
+      </c>
+      <c r="H28">
+        <v>144.93</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="1"/>
+        <v>2.4155000000000002</v>
+      </c>
+      <c r="J28">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="3">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="C29" s="3">
+        <v>69</v>
+      </c>
+      <c r="E29" s="4">
+        <v>65.41</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.2028985507246421</v>
+      </c>
+      <c r="H29">
+        <v>150.11000000000001</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="1"/>
+        <v>2.5018333333333334</v>
+      </c>
+      <c r="J29">
+        <v>54.96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="B30" s="3">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3">
+        <v>71.8</v>
+      </c>
+      <c r="E30" s="4">
+        <v>68.22</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.9860724233983262</v>
+      </c>
+      <c r="H30">
+        <v>155.28</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="1"/>
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="J30">
+        <v>60.36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="B31" s="3">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="E31" s="4">
+        <v>69.19</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.8405797101449366</v>
+      </c>
+      <c r="H31">
+        <v>160.46</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="1"/>
+        <v>2.6743333333333337</v>
+      </c>
+      <c r="J31">
+        <v>48.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="B32" s="3">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3">
+        <v>75</v>
+      </c>
+      <c r="E32" s="4">
+        <v>66.349999999999994</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>-11.533333333333342</v>
+      </c>
+      <c r="H32">
+        <v>165.64</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="1"/>
+        <v>2.7606666666666664</v>
+      </c>
+      <c r="J32">
+        <v>52.55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="B33" s="3">
+        <v>15</v>
+      </c>
+      <c r="C33" s="3">
+        <v>77.5</v>
+      </c>
+      <c r="E33" s="4">
+        <v>68.260000000000005</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>-11.922580645161283</v>
+      </c>
+      <c r="H33">
+        <v>170.81</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="1"/>
+        <v>2.8468333333333335</v>
+      </c>
+      <c r="J33">
+        <v>60.73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>85.6</v>
+      </c>
+      <c r="E34" s="4">
+        <v>75.63</v>
+      </c>
+      <c r="F34" s="1">
+        <f>(E34-C34)/C34*100</f>
+        <v>-11.647196261682243</v>
+      </c>
+      <c r="H34">
+        <v>175.99</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9331666666666667</v>
+      </c>
+      <c r="J34">
+        <v>54.69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="3">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C35" s="3">
+        <v>79.5</v>
+      </c>
+      <c r="E35" s="4">
+        <v>76.08</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.3018867924528328</v>
+      </c>
+      <c r="H35">
+        <v>181.17</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" si="1"/>
+        <v>3.0194999999999999</v>
+      </c>
+      <c r="J35">
+        <v>59.34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="C36" s="3">
+        <v>83.1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>79.33</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.5367027677496941</v>
+      </c>
+      <c r="H36">
+        <v>186.34</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="1"/>
+        <v>3.1056666666666666</v>
+      </c>
+      <c r="J36">
+        <v>59.16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="3">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3">
+        <v>14</v>
+      </c>
+      <c r="C37" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="E37" s="4">
+        <v>74.8</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>-10.204081632653061</v>
+      </c>
+      <c r="H37">
+        <v>191.52</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" si="1"/>
+        <v>3.1920000000000002</v>
+      </c>
+      <c r="J37">
+        <v>53.96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="3">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="C38" s="3">
+        <v>86.1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>82.54</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.1347270615563163</v>
+      </c>
+      <c r="H38">
+        <v>196.7</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" si="1"/>
+        <v>3.2783333333333333</v>
+      </c>
+      <c r="J38">
+        <v>60.99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B39" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="C39" s="3">
+        <v>91</v>
+      </c>
+      <c r="E39" s="4">
+        <v>85.06</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.5274725274725247</v>
+      </c>
+      <c r="H39">
+        <v>201.87</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" si="1"/>
+        <v>3.3645</v>
+      </c>
+      <c r="J39">
+        <v>59.87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B40" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C40" s="3">
+        <v>88.6</v>
+      </c>
+      <c r="E40" s="4">
+        <v>88.07</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.59819413092550922</v>
+      </c>
+      <c r="H40">
+        <v>207.05</v>
+      </c>
+      <c r="I40" s="7">
+        <f t="shared" si="1"/>
+        <v>3.4508333333333336</v>
+      </c>
+      <c r="J40">
+        <v>75.41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B41" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="C41" s="3">
+        <v>92</v>
+      </c>
+      <c r="E41" s="4">
+        <v>80.92</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>-12.043478260869565</v>
+      </c>
+      <c r="H41">
+        <v>212.23</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" si="1"/>
+        <v>3.5371666666666663</v>
+      </c>
+      <c r="J41">
+        <v>63.94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="3">
+        <v>5</v>
+      </c>
+      <c r="B42" s="3">
+        <v>13</v>
+      </c>
+      <c r="C42" s="3">
+        <v>94.2</v>
+      </c>
+      <c r="E42" s="4">
+        <v>91.3</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.078556263269645</v>
+      </c>
+      <c r="H42">
+        <v>217.41</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" si="1"/>
+        <v>3.6234999999999999</v>
+      </c>
+      <c r="J42">
+        <v>59.77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="3">
+        <v>5</v>
+      </c>
+      <c r="B43" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C43" s="3">
+        <v>94</v>
+      </c>
+      <c r="E43" s="4">
+        <v>84.89</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.6914893617021267</v>
+      </c>
+      <c r="H43">
+        <v>222.58</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" si="1"/>
+        <v>3.7096666666666667</v>
+      </c>
+      <c r="J43">
+        <v>72.12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="E44">
+        <v>4096</v>
+      </c>
+      <c r="F44" s="1">
+        <f>AVERAGE(F4:F43)</f>
+        <v>-6.5004542595949228</v>
+      </c>
+      <c r="H44">
+        <v>227.76</v>
+      </c>
+      <c r="I44" s="7">
+        <f t="shared" si="1"/>
+        <v>3.7959999999999998</v>
+      </c>
+      <c r="J44">
+        <v>75.319999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="E45">
+        <v>512</v>
+      </c>
+      <c r="H45">
+        <v>243.29</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" si="1"/>
+        <v>4.0548333333333328</v>
+      </c>
+      <c r="J45">
+        <v>68.650000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="E46" s="5">
+        <v>128</v>
+      </c>
+      <c r="H46">
+        <v>253.64</v>
+      </c>
+      <c r="I46" s="7">
+        <f t="shared" si="1"/>
+        <v>4.2273333333333332</v>
+      </c>
+      <c r="J46">
+        <v>81.510000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>264</v>
+      </c>
+      <c r="I47" s="7">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J47">
+        <v>81.93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>50</v>
+      </c>
+      <c r="H48">
+        <v>269.18</v>
+      </c>
+      <c r="I48" s="7">
+        <f t="shared" si="1"/>
+        <v>4.4863333333333335</v>
+      </c>
+      <c r="J48">
+        <v>96.99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>274.36</v>
+      </c>
+      <c r="I49" s="7">
+        <f t="shared" si="1"/>
+        <v>4.5726666666666667</v>
+      </c>
+      <c r="J49">
+        <v>96.52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>279.54000000000002</v>
+      </c>
+      <c r="I50" s="7">
+        <f t="shared" si="1"/>
+        <v>4.6590000000000007</v>
+      </c>
+      <c r="J50">
+        <v>92.86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="H51">
+        <v>295.07</v>
+      </c>
+      <c r="I51" s="7">
+        <f t="shared" si="1"/>
+        <v>4.9178333333333333</v>
+      </c>
+      <c r="J51">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="H52">
+        <v>300.24</v>
+      </c>
+      <c r="I52" s="7">
+        <f t="shared" si="1"/>
+        <v>5.0040000000000004</v>
+      </c>
+      <c r="J52">
+        <v>88.89</v>
       </c>
     </row>
   </sheetData>

--- a/temp-time.xlsx
+++ b/temp-time.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12C8752-E09C-4E5B-8E83-C03687CEFF97}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6729DFA7-10FD-42BE-8C72-9804658B4262}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="183" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -189,7 +189,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -7230,7 +7230,7 @@
         <v>10.35</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" ref="I5:I63" si="1">H5/60</f>
+        <f t="shared" ref="I5:I61" si="1">H5/60</f>
         <v>0.17249999999999999</v>
       </c>
       <c r="J5">

--- a/temp-time.xlsx
+++ b/temp-time.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6729DFA7-10FD-42BE-8C72-9804658B4262}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB739A5-D01B-420E-AC6D-41DD97526099}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17328" yWindow="144" windowWidth="14832" windowHeight="10992" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="In-situ" sheetId="2" r:id="rId2"/>
     <sheet name="In-situ処理後" sheetId="4" r:id="rId3"/>
+    <sheet name="In-situ処理後 (2)" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="14">
   <si>
     <t>室温</t>
     <rPh sb="0" eb="2">
@@ -122,6 +123,9 @@
       <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>​</t>
   </si>
 </sst>
 </file>
@@ -4056,6 +4060,1366 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4164243142800937E-2"/>
+          <c:y val="4.1917957076881285E-2"/>
+          <c:w val="0.87596963107498127"/>
+          <c:h val="0.90083296433911531"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'In-situ処理後 (2)'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>測定温度 [℃]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'In-situ処理後 (2)'!$A$4:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'In-situ処理後 (2)'!$C$4:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>63.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>85.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>83.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>83.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>86.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>88.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>94.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9374-4ABA-ADCD-9B7839269163}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'In-situ処理後 (2)'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>学習結果(keras)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'In-situ処理後 (2)'!$A$4:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'In-situ処理後 (2)'!$E$4:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51.29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46.41</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55.64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61.78</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59.67</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>59.89</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65.41</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68.22</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>69.19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75.63</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>76.08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>79.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>82.54</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>85.06</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>88.07</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>80.92</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>91.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>84.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9374-4ABA-ADCD-9B7839269163}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>予測温度</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'In-situ処理後 (2)'!$I$4:$I$75</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>7.4833333333333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14433333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42266666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49233333333333335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5618333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70116666666666672</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77066666666666672</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84033333333333338</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97966666666666669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0491666666666668</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1188333333333333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1885000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.258</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3276666666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3973333333333333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4668333333333334</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5365</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6756666666666669</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7453333333333334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.8148333333333333</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8844999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.954</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0236666666666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0933333333333333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.1628333333333334</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2326666666666668</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.3021666666666665</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.3718333333333335</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.4415</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.5111666666666665</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5806666666666667</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.6503333333333337</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.7199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.7894999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.8591666666666669</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.928833333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.9984999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.0680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.1376666666666666</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.2073333333333331</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.2770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.3464999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.4161666666666668</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.4858333333333333</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.555333333333333</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.6944999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.7641666666666667</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.8338333333333332</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.9035000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.9729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.0426666666666664</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.1123333333333338</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.1819999999999995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.2515000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.3211666666666666</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.3908333333333331</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.4604999999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.5301666666666671</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.5996666666666668</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.6693333333333333</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.7389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.8086666666666664</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.878166666666667</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.9478333333333335</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.0175000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'In-situ処理後 (2)'!$J$4:$J$75</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>37.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45.97</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68.06</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>63.02</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>73.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>72.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>61.64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>73.36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58.45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70.22</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>65.63</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>63.69</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82.19</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60.04</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>68.87</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>67.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>67.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>90.76</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>70.75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>86.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>69.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>81.99</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>75.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>78.55</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>73.47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>72.88</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>58.24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>86.51</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>73.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>90.33</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>88.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>66.91</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>78.2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>91.27</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>84.62</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>86.64</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>88.47</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>86.46</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>93.65</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>79.19</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>72.56</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>116.61</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>96.56</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>94.12</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>125.47</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>111.61</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>90.01</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>102.97</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>102.18</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>114.79</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>98.01</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>94.61</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>124.56</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9374-4ABA-ADCD-9B7839269163}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="687371120"/>
+        <c:axId val="687377024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="687371120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687377024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="687377024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687371120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.63988296196263783"/>
+          <c:y val="0.48417517492465029"/>
+          <c:w val="0.24307900067521945"/>
+          <c:h val="0.28219265990284215"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4137,6 +5501,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5724,6 +7128,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5827,6 +7747,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E16BDB8-A631-4F08-83F7-0AEF6E5C22A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C37DD86D-E76E-4162-A70E-604ACC0BC5BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8814,7 +10777,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
@@ -10161,4 +12124,1638 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89F311D-C46D-43E7-B9A0-D20245141F99}">
+  <dimension ref="A1:J77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="6">
+        <v>43506</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>23.9</v>
+      </c>
+      <c r="F4" s="1">
+        <f>(E4-C4)/C4*100</f>
+        <v>11.682242990654206</v>
+      </c>
+      <c r="H4">
+        <v>4.49</v>
+      </c>
+      <c r="I4" s="7">
+        <f>H4/60</f>
+        <v>7.4833333333333335E-2</v>
+      </c>
+      <c r="J4" s="7">
+        <v>37.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4">
+        <v>23.14</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F43" si="0">(E5-C5)/C5*100</f>
+        <v>-3.5833333333333308</v>
+      </c>
+      <c r="H5">
+        <v>8.66</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" ref="I5:I68" si="1">H5/60</f>
+        <v>0.14433333333333334</v>
+      </c>
+      <c r="J5" s="7">
+        <v>32.590000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.7735849056603774</v>
+      </c>
+      <c r="H6">
+        <v>12.84</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.214</v>
+      </c>
+      <c r="J6" s="7">
+        <v>35.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>30.47</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>-11.681159420289857</v>
+      </c>
+      <c r="H7">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.28350000000000003</v>
+      </c>
+      <c r="J7" s="7">
+        <v>32.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>30.8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>31.9</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285641</v>
+      </c>
+      <c r="H8">
+        <v>21.18</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="J8" s="7">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>34.6</v>
+      </c>
+      <c r="E9" s="4">
+        <v>32.06</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.3410404624277437</v>
+      </c>
+      <c r="H9">
+        <v>25.36</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.42266666666666663</v>
+      </c>
+      <c r="J9" s="7">
+        <v>44.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4">
+        <v>35.630000000000003</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>7.9696969696969777</v>
+      </c>
+      <c r="H10">
+        <v>29.54</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.49233333333333335</v>
+      </c>
+      <c r="J10" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>14.2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>34</v>
+      </c>
+      <c r="E11" s="4">
+        <v>31.58</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.1176470588235343</v>
+      </c>
+      <c r="H11">
+        <v>33.71</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.5618333333333333</v>
+      </c>
+      <c r="J11" s="7">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4">
+        <v>38.42</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.5238095238095202</v>
+      </c>
+      <c r="H12">
+        <v>37.89</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="1"/>
+        <v>0.63150000000000006</v>
+      </c>
+      <c r="J12" s="7">
+        <v>58.91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3157894736842173</v>
+      </c>
+      <c r="H13">
+        <v>42.07</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.70116666666666672</v>
+      </c>
+      <c r="J13" s="7">
+        <v>47.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43.1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>40.68</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.6148491879350386</v>
+      </c>
+      <c r="H14">
+        <v>46.24</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.77066666666666672</v>
+      </c>
+      <c r="J14" s="7">
+        <v>57.76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B15" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>42.3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>42.65</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.82742316784870318</v>
+      </c>
+      <c r="H15">
+        <v>50.42</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="1"/>
+        <v>0.84033333333333338</v>
+      </c>
+      <c r="J15" s="7">
+        <v>55.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>48.2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>40.33</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>-16.327800829875528</v>
+      </c>
+      <c r="H16">
+        <v>54.6</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.91</v>
+      </c>
+      <c r="J16" s="7">
+        <v>45.97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C17" s="3">
+        <v>47.9</v>
+      </c>
+      <c r="E17" s="4">
+        <v>45.83</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.3215031315240093</v>
+      </c>
+      <c r="H17">
+        <v>58.78</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.97966666666666669</v>
+      </c>
+      <c r="J17" s="7">
+        <v>56.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3">
+        <v>50.1</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4">
+        <v>48.34</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.5129740518962032</v>
+      </c>
+      <c r="H18">
+        <v>62.95</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0491666666666668</v>
+      </c>
+      <c r="J18" s="7">
+        <v>68.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3">
+        <v>50.3</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4">
+        <v>43.18</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>-14.155069582504968</v>
+      </c>
+      <c r="H19">
+        <v>67.13</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="1"/>
+        <v>1.1188333333333333</v>
+      </c>
+      <c r="J19" s="7">
+        <v>68.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>51.3</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4">
+        <v>46.34</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.6686159844054451</v>
+      </c>
+      <c r="H20">
+        <v>71.31</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="1"/>
+        <v>1.1885000000000001</v>
+      </c>
+      <c r="J20" s="7">
+        <v>63.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="B21" s="3">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3">
+        <v>57.9</v>
+      </c>
+      <c r="E21" s="4">
+        <v>51.29</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>-11.416234887737478</v>
+      </c>
+      <c r="H21">
+        <v>75.48</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="1"/>
+        <v>1.258</v>
+      </c>
+      <c r="J21" s="7">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>55</v>
+      </c>
+      <c r="E22" s="4">
+        <v>46.41</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>-15.618181818181826</v>
+      </c>
+      <c r="H22">
+        <v>79.66</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="1"/>
+        <v>1.3276666666666666</v>
+      </c>
+      <c r="J22" s="7">
+        <v>74.599999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="B23" s="3">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3">
+        <v>56.7</v>
+      </c>
+      <c r="E23" s="4">
+        <v>48.05</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>-15.255731922398599</v>
+      </c>
+      <c r="H23">
+        <v>83.84</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="1"/>
+        <v>1.3973333333333333</v>
+      </c>
+      <c r="J23" s="7">
+        <v>73.650000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="B24" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="C24" s="3">
+        <v>59.2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>55.64</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.0135135135135176</v>
+      </c>
+      <c r="H24">
+        <v>88.01</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="1"/>
+        <v>1.4668333333333334</v>
+      </c>
+      <c r="J24" s="7">
+        <v>76.319999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="E25" s="4">
+        <v>61.78</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>-10.333817126269961</v>
+      </c>
+      <c r="H25">
+        <v>92.19</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="1"/>
+        <v>1.5365</v>
+      </c>
+      <c r="J25" s="7">
+        <v>70.709999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>63.6</v>
+      </c>
+      <c r="E26" s="4">
+        <v>59.67</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.1792452830188669</v>
+      </c>
+      <c r="H26">
+        <v>96.36</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="1"/>
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="J26" s="7">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="E27" s="4">
+        <v>59.89</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.3948562783661043</v>
+      </c>
+      <c r="H27">
+        <v>100.54</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="1"/>
+        <v>1.6756666666666669</v>
+      </c>
+      <c r="J27" s="7">
+        <v>61.64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="3">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E28" s="4">
+        <v>62.2</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.302533532041716</v>
+      </c>
+      <c r="H28">
+        <v>104.72</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="1"/>
+        <v>1.7453333333333334</v>
+      </c>
+      <c r="J28" s="7">
+        <v>73.36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="3">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="C29" s="3">
+        <v>69</v>
+      </c>
+      <c r="E29" s="4">
+        <v>65.41</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.2028985507246421</v>
+      </c>
+      <c r="H29">
+        <v>108.89</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8148333333333333</v>
+      </c>
+      <c r="J29" s="7">
+        <v>58.45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="B30" s="3">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3">
+        <v>71.8</v>
+      </c>
+      <c r="E30" s="4">
+        <v>68.22</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.9860724233983262</v>
+      </c>
+      <c r="H30">
+        <v>113.07</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8844999999999998</v>
+      </c>
+      <c r="J30" s="7">
+        <v>70.22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="B31" s="3">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="E31" s="4">
+        <v>69.19</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.8405797101449366</v>
+      </c>
+      <c r="H31">
+        <v>117.24</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="1"/>
+        <v>1.954</v>
+      </c>
+      <c r="J31" s="7">
+        <v>65.63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="B32" s="3">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3">
+        <v>75</v>
+      </c>
+      <c r="E32" s="4">
+        <v>66.349999999999994</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>-11.533333333333342</v>
+      </c>
+      <c r="H32">
+        <v>121.42</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="1"/>
+        <v>2.0236666666666667</v>
+      </c>
+      <c r="J32" s="7">
+        <v>63.69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="B33" s="3">
+        <v>15</v>
+      </c>
+      <c r="C33" s="3">
+        <v>77.5</v>
+      </c>
+      <c r="E33" s="4">
+        <v>68.260000000000005</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>-11.922580645161283</v>
+      </c>
+      <c r="H33">
+        <v>125.6</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="1"/>
+        <v>2.0933333333333333</v>
+      </c>
+      <c r="J33" s="7">
+        <v>82.19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>85.6</v>
+      </c>
+      <c r="E34" s="4">
+        <v>75.63</v>
+      </c>
+      <c r="F34" s="1">
+        <f>(E34-C34)/C34*100</f>
+        <v>-11.647196261682243</v>
+      </c>
+      <c r="H34">
+        <v>129.77000000000001</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1628333333333334</v>
+      </c>
+      <c r="J34" s="7">
+        <v>60.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="3">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C35" s="3">
+        <v>79.5</v>
+      </c>
+      <c r="E35" s="4">
+        <v>76.08</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.3018867924528328</v>
+      </c>
+      <c r="H35">
+        <v>133.96</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" si="1"/>
+        <v>2.2326666666666668</v>
+      </c>
+      <c r="J35" s="7">
+        <v>68.87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="C36" s="3">
+        <v>83.1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>79.33</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.5367027677496941</v>
+      </c>
+      <c r="H36">
+        <v>138.13</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="1"/>
+        <v>2.3021666666666665</v>
+      </c>
+      <c r="J36" s="7">
+        <v>73.400000000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="3">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3">
+        <v>14</v>
+      </c>
+      <c r="C37" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="E37" s="4">
+        <v>74.8</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>-10.204081632653061</v>
+      </c>
+      <c r="H37">
+        <v>142.31</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" si="1"/>
+        <v>2.3718333333333335</v>
+      </c>
+      <c r="J37" s="7">
+        <v>67.459999999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="3">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="C38" s="3">
+        <v>86.1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>82.54</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.1347270615563163</v>
+      </c>
+      <c r="H38">
+        <v>146.49</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" si="1"/>
+        <v>2.4415</v>
+      </c>
+      <c r="J38" s="7">
+        <v>67.349999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B39" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="C39" s="3">
+        <v>91</v>
+      </c>
+      <c r="E39" s="4">
+        <v>85.06</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.5274725274725247</v>
+      </c>
+      <c r="H39">
+        <v>150.66999999999999</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" si="1"/>
+        <v>2.5111666666666665</v>
+      </c>
+      <c r="J39" s="7">
+        <v>90.76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B40" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C40" s="3">
+        <v>88.6</v>
+      </c>
+      <c r="E40" s="4">
+        <v>88.07</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.59819413092550922</v>
+      </c>
+      <c r="H40">
+        <v>154.84</v>
+      </c>
+      <c r="I40" s="7">
+        <f t="shared" si="1"/>
+        <v>2.5806666666666667</v>
+      </c>
+      <c r="J40" s="7">
+        <v>70.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B41" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="C41" s="3">
+        <v>92</v>
+      </c>
+      <c r="E41" s="4">
+        <v>80.92</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>-12.043478260869565</v>
+      </c>
+      <c r="H41">
+        <v>159.02000000000001</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" si="1"/>
+        <v>2.6503333333333337</v>
+      </c>
+      <c r="J41" s="7">
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="3">
+        <v>5</v>
+      </c>
+      <c r="B42" s="3">
+        <v>13</v>
+      </c>
+      <c r="C42" s="3">
+        <v>94.2</v>
+      </c>
+      <c r="E42" s="4">
+        <v>91.3</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.078556263269645</v>
+      </c>
+      <c r="H42">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" si="1"/>
+        <v>2.7199999999999998</v>
+      </c>
+      <c r="J42" s="7">
+        <v>69.040000000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="3">
+        <v>5</v>
+      </c>
+      <c r="B43" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C43" s="3">
+        <v>94</v>
+      </c>
+      <c r="E43" s="4">
+        <v>84.89</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.6914893617021267</v>
+      </c>
+      <c r="H43">
+        <v>167.37</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" si="1"/>
+        <v>2.7894999999999999</v>
+      </c>
+      <c r="J43" s="7">
+        <v>81.99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="E44">
+        <v>4096</v>
+      </c>
+      <c r="F44" s="1">
+        <f>AVERAGE(F4:F43)</f>
+        <v>-6.5004542595949228</v>
+      </c>
+      <c r="H44">
+        <v>171.55</v>
+      </c>
+      <c r="I44" s="7">
+        <f t="shared" si="1"/>
+        <v>2.8591666666666669</v>
+      </c>
+      <c r="J44" s="7">
+        <v>75.040000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="E45">
+        <v>512</v>
+      </c>
+      <c r="H45">
+        <v>175.73</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" si="1"/>
+        <v>2.928833333333333</v>
+      </c>
+      <c r="J45" s="7">
+        <v>78.55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="E46" s="5">
+        <v>128</v>
+      </c>
+      <c r="H46">
+        <v>179.91</v>
+      </c>
+      <c r="I46" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9984999999999999</v>
+      </c>
+      <c r="J46" s="7">
+        <v>73.47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>184.08</v>
+      </c>
+      <c r="I47" s="7">
+        <f t="shared" si="1"/>
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="J47" s="7">
+        <v>72.88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>50</v>
+      </c>
+      <c r="H48">
+        <v>188.26</v>
+      </c>
+      <c r="I48" s="7">
+        <f t="shared" si="1"/>
+        <v>3.1376666666666666</v>
+      </c>
+      <c r="J48" s="7">
+        <v>58.24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>192.44</v>
+      </c>
+      <c r="I49" s="7">
+        <f t="shared" si="1"/>
+        <v>3.2073333333333331</v>
+      </c>
+      <c r="J49" s="7">
+        <v>86.51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>196.62</v>
+      </c>
+      <c r="I50" s="7">
+        <f t="shared" si="1"/>
+        <v>3.2770000000000001</v>
+      </c>
+      <c r="J50" s="7">
+        <v>73.180000000000007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="H51">
+        <v>200.79</v>
+      </c>
+      <c r="I51" s="7">
+        <f t="shared" si="1"/>
+        <v>3.3464999999999998</v>
+      </c>
+      <c r="J51" s="7">
+        <v>90.33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="H52">
+        <v>204.97</v>
+      </c>
+      <c r="I52" s="7">
+        <f t="shared" si="1"/>
+        <v>3.4161666666666668</v>
+      </c>
+      <c r="J52" s="7">
+        <v>88.48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="H53">
+        <v>209.15</v>
+      </c>
+      <c r="I53" s="7">
+        <f t="shared" si="1"/>
+        <v>3.4858333333333333</v>
+      </c>
+      <c r="J53" s="7">
+        <v>66.91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="H54">
+        <v>213.32</v>
+      </c>
+      <c r="I54" s="7">
+        <f t="shared" si="1"/>
+        <v>3.555333333333333</v>
+      </c>
+      <c r="J54" s="7">
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="H55">
+        <v>217.5</v>
+      </c>
+      <c r="I55" s="7">
+        <f t="shared" si="1"/>
+        <v>3.625</v>
+      </c>
+      <c r="J55" s="7">
+        <v>91.27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="H56">
+        <v>221.67</v>
+      </c>
+      <c r="I56" s="7">
+        <f t="shared" si="1"/>
+        <v>3.6944999999999997</v>
+      </c>
+      <c r="J56" s="7">
+        <v>84.62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="H57">
+        <v>225.85</v>
+      </c>
+      <c r="I57" s="7">
+        <f t="shared" si="1"/>
+        <v>3.7641666666666667</v>
+      </c>
+      <c r="J57" s="7">
+        <v>86.64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="H58">
+        <v>230.03</v>
+      </c>
+      <c r="I58" s="7">
+        <f t="shared" si="1"/>
+        <v>3.8338333333333332</v>
+      </c>
+      <c r="J58" s="7">
+        <v>88.47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="H59">
+        <v>234.21</v>
+      </c>
+      <c r="I59" s="7">
+        <f t="shared" si="1"/>
+        <v>3.9035000000000002</v>
+      </c>
+      <c r="J59" s="7">
+        <v>86.46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="H60">
+        <v>238.38</v>
+      </c>
+      <c r="I60" s="7">
+        <f t="shared" si="1"/>
+        <v>3.9729999999999999</v>
+      </c>
+      <c r="J60" s="7">
+        <v>93.65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="H61">
+        <v>242.56</v>
+      </c>
+      <c r="I61" s="7">
+        <f t="shared" si="1"/>
+        <v>4.0426666666666664</v>
+      </c>
+      <c r="J61" s="7">
+        <v>79.19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="H62">
+        <v>246.74</v>
+      </c>
+      <c r="I62" s="7">
+        <f t="shared" si="1"/>
+        <v>4.1123333333333338</v>
+      </c>
+      <c r="J62" s="7">
+        <v>72.56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="H63">
+        <v>250.92</v>
+      </c>
+      <c r="I63" s="7">
+        <f t="shared" si="1"/>
+        <v>4.1819999999999995</v>
+      </c>
+      <c r="J63" s="7">
+        <v>116.61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="H64">
+        <v>255.09</v>
+      </c>
+      <c r="I64" s="7">
+        <f t="shared" si="1"/>
+        <v>4.2515000000000001</v>
+      </c>
+      <c r="J64" s="7">
+        <v>96.56</v>
+      </c>
+    </row>
+    <row r="65" spans="8:10">
+      <c r="H65">
+        <v>259.27</v>
+      </c>
+      <c r="I65" s="7">
+        <f t="shared" si="1"/>
+        <v>4.3211666666666666</v>
+      </c>
+      <c r="J65" s="7">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="66" spans="8:10">
+      <c r="H66">
+        <v>263.45</v>
+      </c>
+      <c r="I66" s="7">
+        <f t="shared" si="1"/>
+        <v>4.3908333333333331</v>
+      </c>
+      <c r="J66" s="7">
+        <v>125.47</v>
+      </c>
+    </row>
+    <row r="67" spans="8:10">
+      <c r="H67">
+        <v>267.63</v>
+      </c>
+      <c r="I67" s="7">
+        <f t="shared" si="1"/>
+        <v>4.4604999999999997</v>
+      </c>
+      <c r="J67" s="7">
+        <v>111.61</v>
+      </c>
+    </row>
+    <row r="68" spans="8:10">
+      <c r="H68">
+        <v>271.81</v>
+      </c>
+      <c r="I68" s="7">
+        <f t="shared" si="1"/>
+        <v>4.5301666666666671</v>
+      </c>
+      <c r="J68" s="7">
+        <v>90.01</v>
+      </c>
+    </row>
+    <row r="69" spans="8:10">
+      <c r="H69">
+        <v>275.98</v>
+      </c>
+      <c r="I69" s="7">
+        <f t="shared" ref="I69:I75" si="2">H69/60</f>
+        <v>4.5996666666666668</v>
+      </c>
+      <c r="J69" s="7">
+        <v>102.97</v>
+      </c>
+    </row>
+    <row r="70" spans="8:10">
+      <c r="H70">
+        <v>280.16000000000003</v>
+      </c>
+      <c r="I70" s="7">
+        <f t="shared" si="2"/>
+        <v>4.6693333333333333</v>
+      </c>
+      <c r="J70" s="7">
+        <v>102.18</v>
+      </c>
+    </row>
+    <row r="71" spans="8:10">
+      <c r="H71">
+        <v>284.33999999999997</v>
+      </c>
+      <c r="I71" s="7">
+        <f t="shared" si="2"/>
+        <v>4.7389999999999999</v>
+      </c>
+      <c r="J71" s="7">
+        <v>114.79</v>
+      </c>
+    </row>
+    <row r="72" spans="8:10">
+      <c r="H72">
+        <v>288.52</v>
+      </c>
+      <c r="I72" s="7">
+        <f t="shared" si="2"/>
+        <v>4.8086666666666664</v>
+      </c>
+      <c r="J72" s="7">
+        <v>98.01</v>
+      </c>
+    </row>
+    <row r="73" spans="8:10">
+      <c r="H73">
+        <v>292.69</v>
+      </c>
+      <c r="I73" s="7">
+        <f t="shared" si="2"/>
+        <v>4.878166666666667</v>
+      </c>
+      <c r="J73" s="7">
+        <v>94.61</v>
+      </c>
+    </row>
+    <row r="74" spans="8:10">
+      <c r="H74">
+        <v>296.87</v>
+      </c>
+      <c r="I74" s="7">
+        <f t="shared" si="2"/>
+        <v>4.9478333333333335</v>
+      </c>
+      <c r="J74" s="7">
+        <v>124.56</v>
+      </c>
+    </row>
+    <row r="75" spans="8:10">
+      <c r="H75">
+        <v>301.05</v>
+      </c>
+      <c r="I75" s="7">
+        <f t="shared" si="2"/>
+        <v>5.0175000000000001</v>
+      </c>
+      <c r="J75" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="8:10">
+      <c r="H77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>